--- a/docs/hans-os_ref.xlsx
+++ b/docs/hans-os_ref.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="487">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,10 +1300,6 @@
   </si>
   <si>
     <t>Buddy Block Pool of Dynamic Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Video Memory (4000B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1693,6 +1689,18 @@
   </si>
   <si>
     <t>-&gt; divided by 16cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Memory in Text Mode (4000B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBE Mode Info Block (256B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7F00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,9 +2193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C58"/>
+  <dimension ref="B1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2199,12 +2209,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="C1" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2213,7 +2223,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -2224,17 +2234,17 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C6" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
@@ -2247,17 +2257,17 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C11" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C12" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C13" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
@@ -2267,10 +2277,10 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
@@ -2283,46 +2293,46 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -2332,7 +2342,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" s="12"/>
     </row>
@@ -2349,7 +2359,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -2362,7 +2372,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C33" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -2370,12 +2380,12 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C35" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C36" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
@@ -2396,10 +2406,10 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -2413,7 +2423,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" s="9" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -2421,7 +2431,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
@@ -2432,12 +2442,12 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C47" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C48" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
@@ -2458,7 +2468,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="12"/>
     </row>
@@ -2468,30 +2478,44 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="19"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C56" s="21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C55" s="11" t="s">
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C58" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C61" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2528,23 +2552,23 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>432</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>433</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>16</v>
@@ -2600,10 +2624,10 @@
         <v>281</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
@@ -2635,10 +2659,10 @@
         <v>285</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
@@ -2670,10 +2694,10 @@
         <v>297</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2705,10 +2729,10 @@
         <v>291</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2740,10 +2764,10 @@
         <v>294</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -2775,10 +2799,10 @@
         <v>298</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -2810,10 +2834,10 @@
         <v>299</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -2845,10 +2869,10 @@
         <v>303</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
@@ -2880,10 +2904,10 @@
         <v>307</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
@@ -2915,10 +2939,10 @@
         <v>308</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
@@ -2950,10 +2974,10 @@
         <v>312</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2985,10 +3009,10 @@
         <v>315</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -3020,10 +3044,10 @@
         <v>318</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3055,10 +3079,10 @@
         <v>321</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -3090,10 +3114,10 @@
         <v>324</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -3125,10 +3149,10 @@
         <v>286</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -3160,10 +3184,10 @@
         <v>328</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -3195,10 +3219,10 @@
         <v>332</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
@@ -3230,10 +3254,10 @@
         <v>335</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -3265,10 +3289,10 @@
         <v>338</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
@@ -3300,10 +3324,10 @@
         <v>339</v>
       </c>
       <c r="K23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
@@ -3335,10 +3359,10 @@
         <v>339</v>
       </c>
       <c r="K24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -3370,10 +3394,10 @@
         <v>339</v>
       </c>
       <c r="K25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -3405,10 +3429,10 @@
         <v>339</v>
       </c>
       <c r="K26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
@@ -3440,10 +3464,10 @@
         <v>339</v>
       </c>
       <c r="K27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
@@ -3475,10 +3499,10 @@
         <v>339</v>
       </c>
       <c r="K28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
@@ -3510,10 +3534,10 @@
         <v>339</v>
       </c>
       <c r="K29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
@@ -3545,10 +3569,10 @@
         <v>339</v>
       </c>
       <c r="K30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
@@ -3580,10 +3604,10 @@
         <v>339</v>
       </c>
       <c r="K31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
@@ -3615,10 +3639,10 @@
         <v>339</v>
       </c>
       <c r="K32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
@@ -3650,10 +3674,10 @@
         <v>339</v>
       </c>
       <c r="K33" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
@@ -3685,10 +3709,10 @@
         <v>339</v>
       </c>
       <c r="K34" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>472</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
@@ -3696,7 +3720,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>351</v>
@@ -3705,7 +3729,7 @@
         <v>286</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>288</v>
@@ -3720,10 +3744,10 @@
         <v>286</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
@@ -3731,7 +3755,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>352</v>
@@ -3755,10 +3779,10 @@
         <v>286</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
@@ -3766,7 +3790,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>353</v>
@@ -3790,10 +3814,10 @@
         <v>286</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
@@ -3801,7 +3825,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>354</v>
@@ -3825,10 +3849,10 @@
         <v>286</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
@@ -3836,7 +3860,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>355</v>
@@ -3860,10 +3884,10 @@
         <v>286</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -3871,7 +3895,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>356</v>
@@ -3880,7 +3904,7 @@
         <v>286</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>288</v>
@@ -3895,10 +3919,10 @@
         <v>286</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
@@ -3906,7 +3930,7 @@
         <v>59</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>357</v>
@@ -3930,10 +3954,10 @@
         <v>286</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
@@ -3941,7 +3965,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>358</v>
@@ -3950,7 +3974,7 @@
         <v>286</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>288</v>
@@ -3965,10 +3989,10 @@
         <v>286</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -3976,7 +4000,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>359</v>
@@ -4000,10 +4024,10 @@
         <v>286</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -4011,7 +4035,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>360</v>
@@ -4035,10 +4059,10 @@
         <v>286</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
@@ -4046,7 +4070,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>361</v>
@@ -4070,10 +4094,10 @@
         <v>286</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
@@ -4081,7 +4105,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>362</v>
@@ -4105,10 +4129,10 @@
         <v>286</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
@@ -4116,7 +4140,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>363</v>
@@ -4140,10 +4164,10 @@
         <v>286</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
@@ -4151,7 +4175,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>364</v>
@@ -4175,10 +4199,10 @@
         <v>286</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
@@ -4186,7 +4210,7 @@
         <v>67</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>365</v>
@@ -4210,10 +4234,10 @@
         <v>286</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
@@ -4221,7 +4245,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>366</v>
@@ -4245,10 +4269,10 @@
         <v>286</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -4280,10 +4304,10 @@
         <v>286</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -4315,10 +4339,10 @@
         <v>286</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
@@ -4350,10 +4374,10 @@
         <v>286</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
@@ -4385,10 +4409,10 @@
         <v>286</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -4420,10 +4444,10 @@
         <v>286</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -4455,10 +4479,10 @@
         <v>286</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -4490,10 +4514,10 @@
         <v>286</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
@@ -4525,10 +4549,10 @@
         <v>286</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -4560,10 +4584,10 @@
         <v>286</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
@@ -4595,10 +4619,10 @@
         <v>286</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
@@ -4630,10 +4654,10 @@
         <v>286</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
@@ -4665,10 +4689,10 @@
         <v>286</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -4700,10 +4724,10 @@
         <v>286</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
@@ -4735,10 +4759,10 @@
         <v>286</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
@@ -4770,10 +4794,10 @@
         <v>286</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -4805,10 +4829,10 @@
         <v>286</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -4840,10 +4864,10 @@
         <v>286</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -4875,10 +4899,10 @@
         <v>286</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
@@ -4910,10 +4934,10 @@
         <v>286</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
@@ -4945,10 +4969,10 @@
         <v>286</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -4980,10 +5004,10 @@
         <v>286</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
@@ -5015,10 +5039,10 @@
         <v>286</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -5050,10 +5074,10 @@
         <v>286</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -5085,10 +5109,10 @@
         <v>286</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -5120,10 +5144,10 @@
         <v>286</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -5155,10 +5179,10 @@
         <v>286</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -5190,10 +5214,10 @@
         <v>286</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -5225,10 +5249,10 @@
         <v>286</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -5260,10 +5284,10 @@
         <v>286</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -5295,10 +5319,10 @@
         <v>286</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
@@ -5330,10 +5354,10 @@
         <v>286</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
@@ -5365,10 +5389,10 @@
         <v>286</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -5400,10 +5424,10 @@
         <v>286</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -5435,10 +5459,10 @@
         <v>286</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
@@ -5470,10 +5494,10 @@
         <v>286</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -5505,10 +5529,10 @@
         <v>286</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
@@ -5540,10 +5564,10 @@
         <v>286</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -5575,10 +5599,10 @@
         <v>286</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -5610,10 +5634,10 @@
         <v>286</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
@@ -5645,10 +5669,10 @@
         <v>286</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
@@ -5680,10 +5704,10 @@
         <v>286</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
@@ -5715,10 +5739,10 @@
         <v>286</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
@@ -5750,10 +5774,10 @@
         <v>286</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
@@ -5785,10 +5809,10 @@
         <v>286</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
@@ -5820,10 +5844,10 @@
         <v>286</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
@@ -5855,10 +5879,10 @@
         <v>286</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
@@ -5890,10 +5914,10 @@
         <v>286</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
@@ -5925,10 +5949,10 @@
         <v>286</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
@@ -5960,10 +5984,10 @@
         <v>286</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
@@ -5995,10 +6019,10 @@
         <v>286</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.4">
@@ -6030,10 +6054,10 @@
         <v>286</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.4">
@@ -6065,10 +6089,10 @@
         <v>286</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
@@ -6085,7 +6109,7 @@
         <v>286</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G103" s="19" t="s">
         <v>286</v>
@@ -6120,7 +6144,7 @@
         <v>286</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G104" s="19" t="s">
         <v>286</v>
@@ -6155,7 +6179,7 @@
         <v>286</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>286</v>
@@ -6190,7 +6214,7 @@
         <v>286</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>286</v>
@@ -6225,7 +6249,7 @@
         <v>286</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G107" s="19" t="s">
         <v>286</v>
@@ -6260,7 +6284,7 @@
         <v>286</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G108" s="19" t="s">
         <v>286</v>
@@ -6295,7 +6319,7 @@
         <v>286</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>286</v>
@@ -6330,7 +6354,7 @@
         <v>286</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G110" s="19" t="s">
         <v>286</v>
@@ -6365,7 +6389,7 @@
         <v>286</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G111" s="19" t="s">
         <v>286</v>
@@ -6400,7 +6424,7 @@
         <v>286</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G112" s="19" t="s">
         <v>286</v>
@@ -6435,7 +6459,7 @@
         <v>286</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G113" s="19" t="s">
         <v>286</v>
@@ -6470,7 +6494,7 @@
         <v>286</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G114" s="19" t="s">
         <v>286</v>
@@ -6505,7 +6529,7 @@
         <v>286</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G115" s="19" t="s">
         <v>286</v>
@@ -6540,7 +6564,7 @@
         <v>286</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G116" s="19" t="s">
         <v>286</v>
@@ -6575,7 +6599,7 @@
         <v>286</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G117" s="19" t="s">
         <v>286</v>
@@ -6610,7 +6634,7 @@
         <v>286</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G118" s="19" t="s">
         <v>286</v>
@@ -6645,7 +6669,7 @@
         <v>286</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G119" s="19" t="s">
         <v>286</v>
@@ -6680,7 +6704,7 @@
         <v>286</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G120" s="19" t="s">
         <v>286</v>
@@ -6715,7 +6739,7 @@
         <v>286</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G121" s="19" t="s">
         <v>286</v>
@@ -6750,7 +6774,7 @@
         <v>286</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G122" s="19" t="s">
         <v>286</v>
@@ -6785,7 +6809,7 @@
         <v>286</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G123" s="19" t="s">
         <v>286</v>
@@ -6820,7 +6844,7 @@
         <v>286</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>286</v>
@@ -6855,7 +6879,7 @@
         <v>286</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>286</v>
@@ -6890,7 +6914,7 @@
         <v>286</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G126" s="19" t="s">
         <v>286</v>
@@ -6925,7 +6949,7 @@
         <v>286</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G127" s="19" t="s">
         <v>286</v>
@@ -6960,7 +6984,7 @@
         <v>286</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G128" s="19" t="s">
         <v>286</v>
@@ -6995,7 +7019,7 @@
         <v>286</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G129" s="19" t="s">
         <v>286</v>
@@ -7030,7 +7054,7 @@
         <v>286</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G130" s="19" t="s">
         <v>286</v>
@@ -7065,7 +7089,7 @@
         <v>286</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>286</v>
@@ -7100,7 +7124,7 @@
         <v>286</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>286</v>
@@ -7135,7 +7159,7 @@
         <v>286</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>286</v>
@@ -7170,7 +7194,7 @@
         <v>286</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G134" s="19" t="s">
         <v>286</v>
@@ -7205,7 +7229,7 @@
         <v>286</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G135" s="19" t="s">
         <v>286</v>
@@ -7240,7 +7264,7 @@
         <v>286</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>286</v>
@@ -7275,7 +7299,7 @@
         <v>286</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>286</v>
@@ -7310,7 +7334,7 @@
         <v>286</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G138" s="19" t="s">
         <v>286</v>
@@ -7345,7 +7369,7 @@
         <v>286</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>286</v>
@@ -7380,7 +7404,7 @@
         <v>286</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>286</v>
@@ -7415,7 +7439,7 @@
         <v>286</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>286</v>
@@ -7450,7 +7474,7 @@
         <v>286</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>286</v>
@@ -7485,7 +7509,7 @@
         <v>286</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G143" s="19" t="s">
         <v>286</v>
@@ -7520,7 +7544,7 @@
         <v>286</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>286</v>
@@ -7555,7 +7579,7 @@
         <v>286</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G145" s="19" t="s">
         <v>286</v>
@@ -7590,7 +7614,7 @@
         <v>286</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G146" s="19" t="s">
         <v>286</v>
@@ -7625,7 +7649,7 @@
         <v>286</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>286</v>
@@ -7660,7 +7684,7 @@
         <v>286</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G148" s="19" t="s">
         <v>286</v>
@@ -7695,7 +7719,7 @@
         <v>286</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G149" s="19" t="s">
         <v>286</v>
@@ -7730,7 +7754,7 @@
         <v>286</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G150" s="19" t="s">
         <v>286</v>
@@ -7765,7 +7789,7 @@
         <v>286</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G151" s="19" t="s">
         <v>286</v>
@@ -7800,7 +7824,7 @@
         <v>286</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G152" s="19" t="s">
         <v>286</v>
@@ -7835,7 +7859,7 @@
         <v>286</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G153" s="19" t="s">
         <v>286</v>
@@ -7870,7 +7894,7 @@
         <v>286</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G154" s="19" t="s">
         <v>286</v>
@@ -7905,7 +7929,7 @@
         <v>286</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G155" s="19" t="s">
         <v>286</v>
@@ -7940,7 +7964,7 @@
         <v>286</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G156" s="19" t="s">
         <v>286</v>
@@ -7975,7 +7999,7 @@
         <v>286</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G157" s="19" t="s">
         <v>286</v>
@@ -8010,7 +8034,7 @@
         <v>286</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G158" s="19" t="s">
         <v>286</v>
@@ -8045,7 +8069,7 @@
         <v>286</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G159" s="19" t="s">
         <v>286</v>
@@ -8080,7 +8104,7 @@
         <v>286</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G160" s="19" t="s">
         <v>286</v>
@@ -8115,7 +8139,7 @@
         <v>286</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G161" s="19" t="s">
         <v>286</v>
@@ -8150,7 +8174,7 @@
         <v>286</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G162" s="19" t="s">
         <v>286</v>
@@ -8185,7 +8209,7 @@
         <v>286</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G163" s="19" t="s">
         <v>286</v>
@@ -8220,7 +8244,7 @@
         <v>286</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G164" s="19" t="s">
         <v>286</v>
@@ -8255,7 +8279,7 @@
         <v>286</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G165" s="19" t="s">
         <v>286</v>
@@ -8290,7 +8314,7 @@
         <v>286</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G166" s="19" t="s">
         <v>286</v>
@@ -8325,7 +8349,7 @@
         <v>286</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G167" s="19" t="s">
         <v>286</v>
@@ -8360,7 +8384,7 @@
         <v>286</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G168" s="19" t="s">
         <v>286</v>
@@ -8395,7 +8419,7 @@
         <v>286</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>286</v>
@@ -8430,7 +8454,7 @@
         <v>286</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G170" s="19" t="s">
         <v>286</v>
@@ -8465,7 +8489,7 @@
         <v>286</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G171" s="19" t="s">
         <v>286</v>
@@ -8500,7 +8524,7 @@
         <v>286</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G172" s="19" t="s">
         <v>286</v>
@@ -8535,7 +8559,7 @@
         <v>286</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G173" s="19" t="s">
         <v>286</v>
@@ -8570,7 +8594,7 @@
         <v>286</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G174" s="19" t="s">
         <v>286</v>
@@ -8605,7 +8629,7 @@
         <v>286</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G175" s="19" t="s">
         <v>286</v>
@@ -8640,7 +8664,7 @@
         <v>286</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G176" s="19" t="s">
         <v>286</v>
@@ -8675,7 +8699,7 @@
         <v>286</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G177" s="19" t="s">
         <v>286</v>
@@ -8710,7 +8734,7 @@
         <v>286</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G178" s="19" t="s">
         <v>286</v>
@@ -8745,7 +8769,7 @@
         <v>286</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G179" s="19" t="s">
         <v>286</v>
@@ -8780,7 +8804,7 @@
         <v>286</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G180" s="19" t="s">
         <v>286</v>
@@ -8815,7 +8839,7 @@
         <v>286</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G181" s="19" t="s">
         <v>286</v>
@@ -8850,7 +8874,7 @@
         <v>286</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G182" s="19" t="s">
         <v>286</v>
@@ -8885,7 +8909,7 @@
         <v>286</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G183" s="19" t="s">
         <v>286</v>
@@ -8920,7 +8944,7 @@
         <v>286</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G184" s="19" t="s">
         <v>286</v>
@@ -8955,7 +8979,7 @@
         <v>286</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>286</v>
@@ -8990,7 +9014,7 @@
         <v>286</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G186" s="19" t="s">
         <v>286</v>
@@ -9025,7 +9049,7 @@
         <v>286</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G187" s="19" t="s">
         <v>286</v>
@@ -9060,7 +9084,7 @@
         <v>286</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G188" s="19" t="s">
         <v>286</v>
@@ -9095,7 +9119,7 @@
         <v>286</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G189" s="19" t="s">
         <v>286</v>
@@ -9130,7 +9154,7 @@
         <v>286</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G190" s="19" t="s">
         <v>286</v>
@@ -9165,7 +9189,7 @@
         <v>286</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G191" s="19" t="s">
         <v>286</v>
@@ -9200,7 +9224,7 @@
         <v>286</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G192" s="19" t="s">
         <v>286</v>
@@ -9235,7 +9259,7 @@
         <v>286</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G193" s="19" t="s">
         <v>286</v>
@@ -9270,7 +9294,7 @@
         <v>286</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G194" s="19" t="s">
         <v>286</v>
@@ -9305,7 +9329,7 @@
         <v>286</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G195" s="19" t="s">
         <v>286</v>
@@ -9340,7 +9364,7 @@
         <v>286</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G196" s="19" t="s">
         <v>286</v>
@@ -9375,7 +9399,7 @@
         <v>286</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G197" s="19" t="s">
         <v>286</v>
@@ -9410,7 +9434,7 @@
         <v>286</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G198" s="19" t="s">
         <v>286</v>
@@ -9445,7 +9469,7 @@
         <v>286</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G199" s="19" t="s">
         <v>286</v>
@@ -9480,7 +9504,7 @@
         <v>286</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G200" s="19" t="s">
         <v>286</v>
@@ -9515,7 +9539,7 @@
         <v>286</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>286</v>
@@ -9550,7 +9574,7 @@
         <v>286</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>286</v>
@@ -9585,7 +9609,7 @@
         <v>286</v>
       </c>
       <c r="F203" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>286</v>
@@ -9620,7 +9644,7 @@
         <v>286</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>286</v>
@@ -9655,7 +9679,7 @@
         <v>286</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>286</v>
@@ -9690,7 +9714,7 @@
         <v>286</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>286</v>
@@ -9725,7 +9749,7 @@
         <v>286</v>
       </c>
       <c r="F207" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G207" s="19" t="s">
         <v>286</v>
@@ -9760,7 +9784,7 @@
         <v>286</v>
       </c>
       <c r="F208" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G208" s="19" t="s">
         <v>286</v>
@@ -9795,7 +9819,7 @@
         <v>286</v>
       </c>
       <c r="F209" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G209" s="19" t="s">
         <v>286</v>
@@ -9830,7 +9854,7 @@
         <v>286</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G210" s="19" t="s">
         <v>286</v>
@@ -9865,7 +9889,7 @@
         <v>286</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G211" s="19" t="s">
         <v>286</v>
@@ -9900,7 +9924,7 @@
         <v>286</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G212" s="19" t="s">
         <v>286</v>
@@ -9935,7 +9959,7 @@
         <v>286</v>
       </c>
       <c r="F213" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G213" s="19" t="s">
         <v>286</v>
@@ -9970,7 +9994,7 @@
         <v>286</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>286</v>
@@ -10005,7 +10029,7 @@
         <v>286</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>286</v>
@@ -10040,7 +10064,7 @@
         <v>286</v>
       </c>
       <c r="F216" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G216" s="19" t="s">
         <v>286</v>
@@ -10075,7 +10099,7 @@
         <v>286</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G217" s="19" t="s">
         <v>286</v>
@@ -10110,7 +10134,7 @@
         <v>286</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G218" s="19" t="s">
         <v>286</v>
@@ -10145,7 +10169,7 @@
         <v>286</v>
       </c>
       <c r="F219" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G219" s="19" t="s">
         <v>286</v>
@@ -10180,7 +10204,7 @@
         <v>286</v>
       </c>
       <c r="F220" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G220" s="19" t="s">
         <v>286</v>
@@ -10215,7 +10239,7 @@
         <v>286</v>
       </c>
       <c r="F221" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G221" s="19" t="s">
         <v>286</v>
@@ -10250,7 +10274,7 @@
         <v>286</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G222" s="19" t="s">
         <v>286</v>
@@ -10285,7 +10309,7 @@
         <v>286</v>
       </c>
       <c r="F223" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G223" s="19" t="s">
         <v>286</v>
@@ -10320,7 +10344,7 @@
         <v>286</v>
       </c>
       <c r="F224" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G224" s="19" t="s">
         <v>286</v>
@@ -10355,7 +10379,7 @@
         <v>286</v>
       </c>
       <c r="F225" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G225" s="19" t="s">
         <v>286</v>
@@ -10390,7 +10414,7 @@
         <v>286</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G226" s="19" t="s">
         <v>286</v>
@@ -10425,7 +10449,7 @@
         <v>286</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G227" s="19" t="s">
         <v>286</v>
@@ -10460,7 +10484,7 @@
         <v>286</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G228" s="19" t="s">
         <v>286</v>
@@ -10495,7 +10519,7 @@
         <v>286</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G229" s="19" t="s">
         <v>286</v>
@@ -10530,7 +10554,7 @@
         <v>286</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G230" s="19" t="s">
         <v>286</v>
@@ -10565,7 +10589,7 @@
         <v>286</v>
       </c>
       <c r="F231" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G231" s="19" t="s">
         <v>286</v>
@@ -10600,7 +10624,7 @@
         <v>286</v>
       </c>
       <c r="F232" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G232" s="19" t="s">
         <v>286</v>
@@ -10635,7 +10659,7 @@
         <v>286</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G233" s="19" t="s">
         <v>286</v>
@@ -10670,7 +10694,7 @@
         <v>286</v>
       </c>
       <c r="F234" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G234" s="19" t="s">
         <v>286</v>
@@ -10705,7 +10729,7 @@
         <v>286</v>
       </c>
       <c r="F235" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G235" s="19" t="s">
         <v>286</v>
@@ -10740,7 +10764,7 @@
         <v>286</v>
       </c>
       <c r="F236" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G236" s="19" t="s">
         <v>286</v>
@@ -10775,7 +10799,7 @@
         <v>286</v>
       </c>
       <c r="F237" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G237" s="19" t="s">
         <v>286</v>
@@ -10810,7 +10834,7 @@
         <v>286</v>
       </c>
       <c r="F238" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G238" s="19" t="s">
         <v>286</v>
@@ -10845,7 +10869,7 @@
         <v>286</v>
       </c>
       <c r="F239" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>286</v>
@@ -10880,7 +10904,7 @@
         <v>286</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>286</v>
@@ -10915,7 +10939,7 @@
         <v>286</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>286</v>
@@ -10950,7 +10974,7 @@
         <v>286</v>
       </c>
       <c r="F242" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G242" s="19" t="s">
         <v>286</v>
@@ -10985,7 +11009,7 @@
         <v>286</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G243" s="19" t="s">
         <v>286</v>
@@ -11020,7 +11044,7 @@
         <v>286</v>
       </c>
       <c r="F244" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G244" s="19" t="s">
         <v>286</v>
@@ -11055,7 +11079,7 @@
         <v>286</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G245" s="19" t="s">
         <v>286</v>
@@ -11090,7 +11114,7 @@
         <v>286</v>
       </c>
       <c r="F246" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G246" s="19" t="s">
         <v>286</v>
@@ -11125,7 +11149,7 @@
         <v>286</v>
       </c>
       <c r="F247" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G247" s="19" t="s">
         <v>286</v>
@@ -11160,7 +11184,7 @@
         <v>286</v>
       </c>
       <c r="F248" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G248" s="19" t="s">
         <v>286</v>
@@ -11195,7 +11219,7 @@
         <v>286</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G249" s="19" t="s">
         <v>286</v>
@@ -11230,7 +11254,7 @@
         <v>286</v>
       </c>
       <c r="F250" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G250" s="19" t="s">
         <v>286</v>
@@ -11265,7 +11289,7 @@
         <v>286</v>
       </c>
       <c r="F251" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G251" s="19" t="s">
         <v>286</v>
@@ -11300,7 +11324,7 @@
         <v>286</v>
       </c>
       <c r="F252" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G252" s="19" t="s">
         <v>286</v>
@@ -11335,7 +11359,7 @@
         <v>286</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G253" s="19" t="s">
         <v>286</v>
@@ -11370,7 +11394,7 @@
         <v>286</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G254" s="19" t="s">
         <v>286</v>
@@ -11405,7 +11429,7 @@
         <v>286</v>
       </c>
       <c r="F255" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G255" s="19" t="s">
         <v>286</v>
@@ -11440,7 +11464,7 @@
         <v>286</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G256" s="19" t="s">
         <v>286</v>
@@ -11475,7 +11499,7 @@
         <v>286</v>
       </c>
       <c r="F257" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G257" s="19" t="s">
         <v>286</v>
@@ -11510,7 +11534,7 @@
         <v>286</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G258" s="19" t="s">
         <v>286</v>

--- a/docs/hans-os_ref.xlsx
+++ b/docs/hans-os_ref.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="memory" sheetId="1" r:id="rId1"/>
     <sheet name="IDT" sheetId="2" r:id="rId2"/>
+    <sheet name="IVT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="549">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,14 +1136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Slave PIC Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floppy Disk Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RTC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1308,10 +1301,6 @@
   </si>
   <si>
     <t>Stack for Kernel64 (1MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1527,10 +1516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timer (PIT Controller)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Parallel Port 2 (Printer Port 2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1701,6 +1686,235 @@
   </si>
   <si>
     <t>0x7F00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; This block has the field indicating video memory address in graphic mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupt Descriptor Table</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x70</t>
+  </si>
+  <si>
+    <t>0x74</t>
+  </si>
+  <si>
+    <t>0x75</t>
+  </si>
+  <si>
+    <t>0x76</t>
+  </si>
+  <si>
+    <t>CPU Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOS Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 0 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 2 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 1 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 3 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 4 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 5 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 6 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 7 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 8 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 12 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 13 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 14 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide by Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Step for Debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-maskable Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakpoint Instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overflow trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print Screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid Opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coprocessor Not Available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer (PIT)</t>
+  </si>
+  <si>
+    <t>Timer (PIT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slave PIC</t>
+  </si>
+  <si>
+    <t>Slave PIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floppy Disk</t>
+  </si>
+  <si>
+    <t>Floppy Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS/2 Keyboard</t>
+  </si>
+  <si>
+    <t>Serial Port 2 (COM Port 2)</t>
+  </si>
+  <si>
+    <t>Serial Port 1 (COM Port 1)</t>
+  </si>
+  <si>
+    <t>Parallel Port 2 (Printer Port 2)</t>
+  </si>
+  <si>
+    <t>Parallel Port 1 (Printer Port 1)</t>
+  </si>
+  <si>
+    <t>Video Control Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk I/O Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>PS/2 Mouse</t>
+  </si>
+  <si>
+    <t>Coprocessor</t>
+  </si>
+  <si>
+    <t>Hard Disk (HDD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupt Vector Table in Real Mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1846,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +2125,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2195,9 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2209,12 +2424,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="C1" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2223,28 +2438,28 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C6" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
@@ -2252,35 +2467,35 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C10" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C11" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C12" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C13" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C14" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
@@ -2288,51 +2503,51 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C17" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C23" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -2342,7 +2557,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C26" s="12"/>
     </row>
@@ -2359,7 +2574,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -2372,7 +2587,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C33" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -2380,12 +2595,12 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C35" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C36" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
@@ -2406,10 +2621,10 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -2423,7 +2638,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -2431,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
@@ -2442,12 +2657,12 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C47" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C48" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
@@ -2468,7 +2683,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C52" s="12"/>
     </row>
@@ -2482,20 +2697,22 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C56" s="21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="21" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C58" s="11" t="s">
@@ -2529,8 +2746,10 @@
   <dimension ref="B1:L258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2539,10 +2758,10 @@
     <col min="2" max="2" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.296875" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -2552,35 +2771,35 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="1" t="s">
-        <v>387</v>
+      <c r="H1" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>18</v>
@@ -2606,16 +2825,16 @@
         <v>286</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>278</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>280</v>
@@ -2624,10 +2843,10 @@
         <v>281</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
@@ -2641,16 +2860,16 @@
         <v>286</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>284</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>280</v>
@@ -2659,10 +2878,10 @@
         <v>285</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
@@ -2676,16 +2895,16 @@
         <v>286</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>349</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>280</v>
@@ -2694,10 +2913,10 @@
         <v>297</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2711,16 +2930,16 @@
         <v>286</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>348</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>280</v>
@@ -2729,10 +2948,10 @@
         <v>291</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2746,16 +2965,16 @@
         <v>286</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>280</v>
@@ -2764,10 +2983,10 @@
         <v>294</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -2781,16 +3000,16 @@
         <v>286</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="H8" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>280</v>
@@ -2799,10 +3018,10 @@
         <v>298</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -2816,16 +3035,16 @@
         <v>286</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>280</v>
@@ -2834,10 +3053,10 @@
         <v>299</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -2851,16 +3070,16 @@
         <v>286</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>280</v>
@@ -2869,10 +3088,10 @@
         <v>303</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
@@ -2886,16 +3105,16 @@
         <v>286</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>306</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>331</v>
@@ -2904,10 +3123,10 @@
         <v>307</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
@@ -2921,16 +3140,16 @@
         <v>286</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>280</v>
@@ -2939,10 +3158,10 @@
         <v>308</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
@@ -2956,16 +3175,16 @@
         <v>286</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>311</v>
@@ -2974,10 +3193,10 @@
         <v>312</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -2991,16 +3210,16 @@
         <v>286</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>314</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>311</v>
@@ -3009,10 +3228,10 @@
         <v>315</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -3026,16 +3245,16 @@
         <v>286</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>311</v>
@@ -3044,10 +3263,10 @@
         <v>318</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3061,16 +3280,16 @@
         <v>286</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>311</v>
@@ -3079,10 +3298,10 @@
         <v>321</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -3096,16 +3315,16 @@
         <v>286</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>311</v>
@@ -3114,10 +3333,10 @@
         <v>324</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -3131,16 +3350,16 @@
         <v>286</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>325</v>
@@ -3149,10 +3368,10 @@
         <v>286</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -3166,16 +3385,16 @@
         <v>286</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>325</v>
@@ -3184,10 +3403,10 @@
         <v>328</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -3201,16 +3420,16 @@
         <v>286</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>331</v>
@@ -3219,10 +3438,10 @@
         <v>332</v>
       </c>
       <c r="K20" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>468</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
@@ -3236,16 +3455,16 @@
         <v>286</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>306</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>325</v>
@@ -3254,10 +3473,10 @@
         <v>335</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -3271,16 +3490,16 @@
         <v>286</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="H22" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>279</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>325</v>
@@ -3289,10 +3508,10 @@
         <v>338</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
@@ -3306,16 +3525,16 @@
         <v>286</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>280</v>
@@ -3324,10 +3543,10 @@
         <v>339</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
@@ -3341,16 +3560,16 @@
         <v>286</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>280</v>
@@ -3359,10 +3578,10 @@
         <v>339</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -3376,16 +3595,16 @@
         <v>286</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>280</v>
@@ -3394,10 +3613,10 @@
         <v>339</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -3411,16 +3630,16 @@
         <v>286</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>280</v>
@@ -3429,10 +3648,10 @@
         <v>339</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
@@ -3446,16 +3665,16 @@
         <v>286</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>280</v>
@@ -3464,10 +3683,10 @@
         <v>339</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
@@ -3481,16 +3700,16 @@
         <v>286</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>280</v>
@@ -3499,10 +3718,10 @@
         <v>339</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
@@ -3516,16 +3735,16 @@
         <v>286</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>280</v>
@@ -3534,10 +3753,10 @@
         <v>339</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
@@ -3551,16 +3770,16 @@
         <v>286</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>280</v>
@@ -3569,10 +3788,10 @@
         <v>339</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
@@ -3586,16 +3805,16 @@
         <v>286</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>280</v>
@@ -3604,10 +3823,10 @@
         <v>339</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
@@ -3621,16 +3840,16 @@
         <v>286</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>280</v>
@@ -3639,10 +3858,10 @@
         <v>339</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
@@ -3656,16 +3875,16 @@
         <v>286</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>280</v>
@@ -3674,10 +3893,10 @@
         <v>339</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
@@ -3691,16 +3910,16 @@
         <v>286</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>280</v>
@@ -3709,10 +3928,10 @@
         <v>339</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
@@ -3720,22 +3939,22 @@
         <v>53</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>433</v>
+        <v>288</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>288</v>
+        <v>531</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>280</v>
@@ -3744,10 +3963,10 @@
         <v>286</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
@@ -3755,22 +3974,22 @@
         <v>54</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F36" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>340</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>288</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>280</v>
@@ -3779,10 +3998,10 @@
         <v>286</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
@@ -3790,22 +4009,22 @@
         <v>55</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>288</v>
+        <v>533</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>280</v>
@@ -3814,10 +4033,10 @@
         <v>286</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
@@ -3825,22 +4044,22 @@
         <v>56</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>372</v>
+        <v>288</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>280</v>
@@ -3849,10 +4068,10 @@
         <v>286</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
@@ -3860,22 +4079,22 @@
         <v>57</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>280</v>
@@ -3884,10 +4103,10 @@
         <v>286</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -3895,22 +4114,22 @@
         <v>58</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>434</v>
+        <v>288</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>280</v>
@@ -3919,10 +4138,10 @@
         <v>286</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
@@ -3930,22 +4149,22 @@
         <v>59</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>288</v>
+        <v>535</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>280</v>
@@ -3954,10 +4173,10 @@
         <v>286</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
@@ -3965,22 +4184,22 @@
         <v>60</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>435</v>
+        <v>288</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>288</v>
+        <v>431</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>280</v>
@@ -3989,10 +4208,10 @@
         <v>286</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -4000,22 +4219,22 @@
         <v>61</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>280</v>
@@ -4024,10 +4243,10 @@
         <v>286</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -4035,22 +4254,22 @@
         <v>62</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>280</v>
@@ -4059,10 +4278,10 @@
         <v>286</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
@@ -4070,22 +4289,22 @@
         <v>63</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>374</v>
+        <v>288</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>280</v>
@@ -4094,10 +4313,10 @@
         <v>286</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
@@ -4105,22 +4324,22 @@
         <v>64</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>280</v>
@@ -4129,10 +4348,10 @@
         <v>286</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
@@ -4140,22 +4359,22 @@
         <v>65</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>280</v>
@@ -4164,10 +4383,10 @@
         <v>286</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
@@ -4175,22 +4394,22 @@
         <v>66</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>280</v>
@@ -4199,10 +4418,10 @@
         <v>286</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
@@ -4210,22 +4429,22 @@
         <v>67</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>280</v>
@@ -4234,10 +4453,10 @@
         <v>286</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
@@ -4245,22 +4464,22 @@
         <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>280</v>
@@ -4269,10 +4488,10 @@
         <v>286</v>
       </c>
       <c r="K50" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="L50" s="18" t="s">
         <v>446</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -4286,16 +4505,16 @@
         <v>286</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>286</v>
@@ -4304,10 +4523,10 @@
         <v>286</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -4321,16 +4540,16 @@
         <v>286</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>286</v>
@@ -4339,10 +4558,10 @@
         <v>286</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
@@ -4356,16 +4575,16 @@
         <v>286</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>286</v>
@@ -4374,10 +4593,10 @@
         <v>286</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
@@ -4391,16 +4610,16 @@
         <v>286</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>286</v>
@@ -4409,10 +4628,10 @@
         <v>286</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -4426,16 +4645,16 @@
         <v>286</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>286</v>
@@ -4444,10 +4663,10 @@
         <v>286</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -4461,16 +4680,16 @@
         <v>286</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>286</v>
@@ -4479,10 +4698,10 @@
         <v>286</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -4496,16 +4715,16 @@
         <v>286</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>286</v>
@@ -4514,10 +4733,10 @@
         <v>286</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
@@ -4531,16 +4750,16 @@
         <v>286</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>286</v>
@@ -4549,10 +4768,10 @@
         <v>286</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -4566,16 +4785,16 @@
         <v>286</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>286</v>
@@ -4584,10 +4803,10 @@
         <v>286</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
@@ -4601,16 +4820,16 @@
         <v>286</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>286</v>
@@ -4619,10 +4838,10 @@
         <v>286</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
@@ -4636,16 +4855,16 @@
         <v>286</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>286</v>
@@ -4654,10 +4873,10 @@
         <v>286</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
@@ -4671,16 +4890,16 @@
         <v>286</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>286</v>
@@ -4689,10 +4908,10 @@
         <v>286</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -4706,16 +4925,16 @@
         <v>286</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>286</v>
@@ -4724,10 +4943,10 @@
         <v>286</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
@@ -4741,16 +4960,16 @@
         <v>286</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>286</v>
@@ -4759,10 +4978,10 @@
         <v>286</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
@@ -4776,16 +4995,16 @@
         <v>286</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>286</v>
@@ -4794,10 +5013,10 @@
         <v>286</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -4811,16 +5030,16 @@
         <v>286</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I66" s="15" t="s">
         <v>286</v>
@@ -4829,10 +5048,10 @@
         <v>286</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -4846,16 +5065,16 @@
         <v>286</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I67" s="15" t="s">
         <v>286</v>
@@ -4864,10 +5083,10 @@
         <v>286</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -4881,16 +5100,16 @@
         <v>286</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>286</v>
@@ -4899,10 +5118,10 @@
         <v>286</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
@@ -4916,16 +5135,16 @@
         <v>286</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I69" s="15" t="s">
         <v>286</v>
@@ -4934,10 +5153,10 @@
         <v>286</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
@@ -4951,16 +5170,16 @@
         <v>286</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I70" s="15" t="s">
         <v>286</v>
@@ -4969,10 +5188,10 @@
         <v>286</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -4986,16 +5205,16 @@
         <v>286</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>286</v>
@@ -5004,10 +5223,10 @@
         <v>286</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
@@ -5021,16 +5240,16 @@
         <v>286</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I72" s="15" t="s">
         <v>286</v>
@@ -5039,10 +5258,10 @@
         <v>286</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -5056,16 +5275,16 @@
         <v>286</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I73" s="15" t="s">
         <v>286</v>
@@ -5074,10 +5293,10 @@
         <v>286</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -5091,16 +5310,16 @@
         <v>286</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I74" s="15" t="s">
         <v>286</v>
@@ -5109,10 +5328,10 @@
         <v>286</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -5126,16 +5345,16 @@
         <v>286</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I75" s="15" t="s">
         <v>286</v>
@@ -5144,10 +5363,10 @@
         <v>286</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -5161,16 +5380,16 @@
         <v>286</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I76" s="15" t="s">
         <v>286</v>
@@ -5179,10 +5398,10 @@
         <v>286</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -5196,16 +5415,16 @@
         <v>286</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I77" s="15" t="s">
         <v>286</v>
@@ -5214,10 +5433,10 @@
         <v>286</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -5231,16 +5450,16 @@
         <v>286</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I78" s="15" t="s">
         <v>286</v>
@@ -5249,10 +5468,10 @@
         <v>286</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -5266,16 +5485,16 @@
         <v>286</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I79" s="15" t="s">
         <v>286</v>
@@ -5284,10 +5503,10 @@
         <v>286</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -5301,16 +5520,16 @@
         <v>286</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I80" s="15" t="s">
         <v>286</v>
@@ -5319,10 +5538,10 @@
         <v>286</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
@@ -5336,16 +5555,16 @@
         <v>286</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I81" s="15" t="s">
         <v>286</v>
@@ -5354,10 +5573,10 @@
         <v>286</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
@@ -5371,16 +5590,16 @@
         <v>286</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I82" s="15" t="s">
         <v>286</v>
@@ -5389,10 +5608,10 @@
         <v>286</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -5406,16 +5625,16 @@
         <v>286</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I83" s="15" t="s">
         <v>286</v>
@@ -5424,10 +5643,10 @@
         <v>286</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -5441,16 +5660,16 @@
         <v>286</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I84" s="15" t="s">
         <v>286</v>
@@ -5459,10 +5678,10 @@
         <v>286</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
@@ -5476,16 +5695,16 @@
         <v>286</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I85" s="15" t="s">
         <v>286</v>
@@ -5494,10 +5713,10 @@
         <v>286</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -5511,16 +5730,16 @@
         <v>286</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I86" s="15" t="s">
         <v>286</v>
@@ -5529,10 +5748,10 @@
         <v>286</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
@@ -5546,16 +5765,16 @@
         <v>286</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I87" s="15" t="s">
         <v>286</v>
@@ -5564,10 +5783,10 @@
         <v>286</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -5581,16 +5800,16 @@
         <v>286</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I88" s="15" t="s">
         <v>286</v>
@@ -5599,10 +5818,10 @@
         <v>286</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -5616,16 +5835,16 @@
         <v>286</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I89" s="15" t="s">
         <v>286</v>
@@ -5634,10 +5853,10 @@
         <v>286</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
@@ -5651,16 +5870,16 @@
         <v>286</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I90" s="15" t="s">
         <v>286</v>
@@ -5669,10 +5888,10 @@
         <v>286</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
@@ -5686,16 +5905,16 @@
         <v>286</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I91" s="15" t="s">
         <v>286</v>
@@ -5704,10 +5923,10 @@
         <v>286</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
@@ -5721,16 +5940,16 @@
         <v>286</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>286</v>
@@ -5739,10 +5958,10 @@
         <v>286</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
@@ -5756,16 +5975,16 @@
         <v>286</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I93" s="15" t="s">
         <v>286</v>
@@ -5774,10 +5993,10 @@
         <v>286</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
@@ -5791,16 +6010,16 @@
         <v>286</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I94" s="15" t="s">
         <v>286</v>
@@ -5809,10 +6028,10 @@
         <v>286</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
@@ -5826,16 +6045,16 @@
         <v>286</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I95" s="15" t="s">
         <v>286</v>
@@ -5844,10 +6063,10 @@
         <v>286</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
@@ -5861,16 +6080,16 @@
         <v>286</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I96" s="15" t="s">
         <v>286</v>
@@ -5879,10 +6098,10 @@
         <v>286</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
@@ -5896,16 +6115,16 @@
         <v>286</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I97" s="15" t="s">
         <v>286</v>
@@ -5914,10 +6133,10 @@
         <v>286</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
@@ -5931,16 +6150,16 @@
         <v>286</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I98" s="15" t="s">
         <v>286</v>
@@ -5949,10 +6168,10 @@
         <v>286</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
@@ -5966,16 +6185,16 @@
         <v>286</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I99" s="15" t="s">
         <v>286</v>
@@ -5984,10 +6203,10 @@
         <v>286</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
@@ -6001,16 +6220,16 @@
         <v>286</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I100" s="15" t="s">
         <v>286</v>
@@ -6019,10 +6238,10 @@
         <v>286</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.4">
@@ -6036,16 +6255,16 @@
         <v>286</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I101" s="15" t="s">
         <v>286</v>
@@ -6054,10 +6273,10 @@
         <v>286</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.4">
@@ -6071,16 +6290,16 @@
         <v>286</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="I102" s="15" t="s">
         <v>286</v>
@@ -6089,10 +6308,10 @@
         <v>286</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
@@ -6109,13 +6328,13 @@
         <v>286</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G103" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>286</v>
@@ -6144,13 +6363,13 @@
         <v>286</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G104" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>286</v>
@@ -6179,13 +6398,13 @@
         <v>286</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>286</v>
@@ -6214,13 +6433,13 @@
         <v>286</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>286</v>
@@ -6249,13 +6468,13 @@
         <v>286</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G107" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>286</v>
@@ -6284,13 +6503,13 @@
         <v>286</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G108" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I108" s="19" t="s">
         <v>286</v>
@@ -6319,13 +6538,13 @@
         <v>286</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>286</v>
@@ -6354,13 +6573,13 @@
         <v>286</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G110" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I110" s="19" t="s">
         <v>286</v>
@@ -6389,13 +6608,13 @@
         <v>286</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G111" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I111" s="19" t="s">
         <v>286</v>
@@ -6424,13 +6643,13 @@
         <v>286</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G112" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I112" s="19" t="s">
         <v>286</v>
@@ -6459,13 +6678,13 @@
         <v>286</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G113" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I113" s="19" t="s">
         <v>286</v>
@@ -6494,13 +6713,13 @@
         <v>286</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G114" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I114" s="19" t="s">
         <v>286</v>
@@ -6529,13 +6748,13 @@
         <v>286</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G115" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I115" s="19" t="s">
         <v>286</v>
@@ -6564,13 +6783,13 @@
         <v>286</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G116" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I116" s="19" t="s">
         <v>286</v>
@@ -6599,13 +6818,13 @@
         <v>286</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G117" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I117" s="19" t="s">
         <v>286</v>
@@ -6634,13 +6853,13 @@
         <v>286</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G118" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I118" s="19" t="s">
         <v>286</v>
@@ -6669,13 +6888,13 @@
         <v>286</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G119" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I119" s="19" t="s">
         <v>286</v>
@@ -6704,13 +6923,13 @@
         <v>286</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G120" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I120" s="19" t="s">
         <v>286</v>
@@ -6739,13 +6958,13 @@
         <v>286</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G121" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I121" s="19" t="s">
         <v>286</v>
@@ -6774,13 +6993,13 @@
         <v>286</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G122" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I122" s="19" t="s">
         <v>286</v>
@@ -6809,13 +7028,13 @@
         <v>286</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G123" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I123" s="19" t="s">
         <v>286</v>
@@ -6844,13 +7063,13 @@
         <v>286</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I124" s="19" t="s">
         <v>286</v>
@@ -6879,13 +7098,13 @@
         <v>286</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I125" s="19" t="s">
         <v>286</v>
@@ -6914,13 +7133,13 @@
         <v>286</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G126" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I126" s="19" t="s">
         <v>286</v>
@@ -6949,13 +7168,13 @@
         <v>286</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G127" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I127" s="19" t="s">
         <v>286</v>
@@ -6984,13 +7203,13 @@
         <v>286</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G128" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I128" s="19" t="s">
         <v>286</v>
@@ -7019,13 +7238,13 @@
         <v>286</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G129" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I129" s="19" t="s">
         <v>286</v>
@@ -7054,13 +7273,13 @@
         <v>286</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G130" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I130" s="19" t="s">
         <v>286</v>
@@ -7089,13 +7308,13 @@
         <v>286</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I131" s="19" t="s">
         <v>286</v>
@@ -7124,13 +7343,13 @@
         <v>286</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I132" s="19" t="s">
         <v>286</v>
@@ -7159,13 +7378,13 @@
         <v>286</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I133" s="19" t="s">
         <v>286</v>
@@ -7194,13 +7413,13 @@
         <v>286</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G134" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I134" s="19" t="s">
         <v>286</v>
@@ -7229,13 +7448,13 @@
         <v>286</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G135" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I135" s="19" t="s">
         <v>286</v>
@@ -7264,13 +7483,13 @@
         <v>286</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I136" s="19" t="s">
         <v>286</v>
@@ -7299,13 +7518,13 @@
         <v>286</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I137" s="19" t="s">
         <v>286</v>
@@ -7334,13 +7553,13 @@
         <v>286</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G138" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I138" s="19" t="s">
         <v>286</v>
@@ -7369,13 +7588,13 @@
         <v>286</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G139" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I139" s="19" t="s">
         <v>286</v>
@@ -7404,13 +7623,13 @@
         <v>286</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I140" s="19" t="s">
         <v>286</v>
@@ -7439,13 +7658,13 @@
         <v>286</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I141" s="19" t="s">
         <v>286</v>
@@ -7474,13 +7693,13 @@
         <v>286</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G142" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I142" s="19" t="s">
         <v>286</v>
@@ -7509,13 +7728,13 @@
         <v>286</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G143" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I143" s="19" t="s">
         <v>286</v>
@@ -7544,13 +7763,13 @@
         <v>286</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I144" s="19" t="s">
         <v>286</v>
@@ -7579,13 +7798,13 @@
         <v>286</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G145" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I145" s="19" t="s">
         <v>286</v>
@@ -7614,13 +7833,13 @@
         <v>286</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G146" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I146" s="19" t="s">
         <v>286</v>
@@ -7649,13 +7868,13 @@
         <v>286</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I147" s="19" t="s">
         <v>286</v>
@@ -7684,13 +7903,13 @@
         <v>286</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G148" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I148" s="19" t="s">
         <v>286</v>
@@ -7719,13 +7938,13 @@
         <v>286</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G149" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I149" s="19" t="s">
         <v>286</v>
@@ -7754,13 +7973,13 @@
         <v>286</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G150" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I150" s="19" t="s">
         <v>286</v>
@@ -7789,13 +8008,13 @@
         <v>286</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G151" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I151" s="19" t="s">
         <v>286</v>
@@ -7824,13 +8043,13 @@
         <v>286</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G152" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I152" s="19" t="s">
         <v>286</v>
@@ -7859,13 +8078,13 @@
         <v>286</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G153" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I153" s="19" t="s">
         <v>286</v>
@@ -7894,13 +8113,13 @@
         <v>286</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G154" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I154" s="19" t="s">
         <v>286</v>
@@ -7929,13 +8148,13 @@
         <v>286</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G155" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H155" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I155" s="19" t="s">
         <v>286</v>
@@ -7964,13 +8183,13 @@
         <v>286</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G156" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I156" s="19" t="s">
         <v>286</v>
@@ -7999,13 +8218,13 @@
         <v>286</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G157" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I157" s="19" t="s">
         <v>286</v>
@@ -8034,13 +8253,13 @@
         <v>286</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G158" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H158" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I158" s="19" t="s">
         <v>286</v>
@@ -8069,13 +8288,13 @@
         <v>286</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G159" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H159" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I159" s="19" t="s">
         <v>286</v>
@@ -8104,13 +8323,13 @@
         <v>286</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G160" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H160" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I160" s="19" t="s">
         <v>286</v>
@@ -8139,13 +8358,13 @@
         <v>286</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G161" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H161" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I161" s="19" t="s">
         <v>286</v>
@@ -8174,13 +8393,13 @@
         <v>286</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G162" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H162" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I162" s="19" t="s">
         <v>286</v>
@@ -8209,13 +8428,13 @@
         <v>286</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G163" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H163" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I163" s="19" t="s">
         <v>286</v>
@@ -8244,13 +8463,13 @@
         <v>286</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G164" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H164" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I164" s="19" t="s">
         <v>286</v>
@@ -8279,13 +8498,13 @@
         <v>286</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G165" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H165" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I165" s="19" t="s">
         <v>286</v>
@@ -8314,13 +8533,13 @@
         <v>286</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G166" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I166" s="19" t="s">
         <v>286</v>
@@ -8349,13 +8568,13 @@
         <v>286</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G167" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I167" s="19" t="s">
         <v>286</v>
@@ -8384,13 +8603,13 @@
         <v>286</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G168" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I168" s="19" t="s">
         <v>286</v>
@@ -8419,13 +8638,13 @@
         <v>286</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I169" s="19" t="s">
         <v>286</v>
@@ -8454,13 +8673,13 @@
         <v>286</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G170" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I170" s="19" t="s">
         <v>286</v>
@@ -8489,13 +8708,13 @@
         <v>286</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G171" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>286</v>
@@ -8524,13 +8743,13 @@
         <v>286</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G172" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>286</v>
@@ -8559,13 +8778,13 @@
         <v>286</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G173" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>286</v>
@@ -8594,13 +8813,13 @@
         <v>286</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G174" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>286</v>
@@ -8629,13 +8848,13 @@
         <v>286</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G175" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>286</v>
@@ -8664,13 +8883,13 @@
         <v>286</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G176" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>286</v>
@@ -8699,13 +8918,13 @@
         <v>286</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G177" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>286</v>
@@ -8734,13 +8953,13 @@
         <v>286</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G178" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>286</v>
@@ -8769,13 +8988,13 @@
         <v>286</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G179" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>286</v>
@@ -8804,13 +9023,13 @@
         <v>286</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G180" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>286</v>
@@ -8839,13 +9058,13 @@
         <v>286</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G181" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>286</v>
@@ -8874,13 +9093,13 @@
         <v>286</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G182" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>286</v>
@@ -8909,13 +9128,13 @@
         <v>286</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G183" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>286</v>
@@ -8944,13 +9163,13 @@
         <v>286</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G184" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>286</v>
@@ -8979,13 +9198,13 @@
         <v>286</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>286</v>
@@ -9014,13 +9233,13 @@
         <v>286</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G186" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H186" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I186" s="19" t="s">
         <v>286</v>
@@ -9049,13 +9268,13 @@
         <v>286</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G187" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H187" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I187" s="19" t="s">
         <v>286</v>
@@ -9084,13 +9303,13 @@
         <v>286</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G188" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H188" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I188" s="19" t="s">
         <v>286</v>
@@ -9119,13 +9338,13 @@
         <v>286</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G189" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H189" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I189" s="19" t="s">
         <v>286</v>
@@ -9154,13 +9373,13 @@
         <v>286</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G190" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H190" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I190" s="19" t="s">
         <v>286</v>
@@ -9189,13 +9408,13 @@
         <v>286</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G191" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H191" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I191" s="19" t="s">
         <v>286</v>
@@ -9224,13 +9443,13 @@
         <v>286</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G192" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I192" s="19" t="s">
         <v>286</v>
@@ -9259,13 +9478,13 @@
         <v>286</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G193" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H193" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I193" s="19" t="s">
         <v>286</v>
@@ -9294,13 +9513,13 @@
         <v>286</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G194" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H194" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I194" s="19" t="s">
         <v>286</v>
@@ -9329,13 +9548,13 @@
         <v>286</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G195" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H195" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I195" s="19" t="s">
         <v>286</v>
@@ -9364,13 +9583,13 @@
         <v>286</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G196" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H196" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I196" s="19" t="s">
         <v>286</v>
@@ -9399,13 +9618,13 @@
         <v>286</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G197" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H197" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I197" s="19" t="s">
         <v>286</v>
@@ -9434,13 +9653,13 @@
         <v>286</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G198" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H198" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I198" s="19" t="s">
         <v>286</v>
@@ -9469,13 +9688,13 @@
         <v>286</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G199" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I199" s="19" t="s">
         <v>286</v>
@@ -9504,13 +9723,13 @@
         <v>286</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G200" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H200" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I200" s="19" t="s">
         <v>286</v>
@@ -9539,13 +9758,13 @@
         <v>286</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H201" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I201" s="19" t="s">
         <v>286</v>
@@ -9574,13 +9793,13 @@
         <v>286</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H202" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I202" s="19" t="s">
         <v>286</v>
@@ -9609,13 +9828,13 @@
         <v>286</v>
       </c>
       <c r="F203" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H203" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I203" s="19" t="s">
         <v>286</v>
@@ -9644,13 +9863,13 @@
         <v>286</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H204" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I204" s="19" t="s">
         <v>286</v>
@@ -9679,13 +9898,13 @@
         <v>286</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H205" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I205" s="19" t="s">
         <v>286</v>
@@ -9714,13 +9933,13 @@
         <v>286</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H206" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I206" s="19" t="s">
         <v>286</v>
@@ -9749,13 +9968,13 @@
         <v>286</v>
       </c>
       <c r="F207" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G207" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I207" s="19" t="s">
         <v>286</v>
@@ -9784,13 +10003,13 @@
         <v>286</v>
       </c>
       <c r="F208" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G208" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H208" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I208" s="19" t="s">
         <v>286</v>
@@ -9819,13 +10038,13 @@
         <v>286</v>
       </c>
       <c r="F209" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G209" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H209" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I209" s="19" t="s">
         <v>286</v>
@@ -9854,13 +10073,13 @@
         <v>286</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G210" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H210" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I210" s="19" t="s">
         <v>286</v>
@@ -9889,13 +10108,13 @@
         <v>286</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G211" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I211" s="19" t="s">
         <v>286</v>
@@ -9924,13 +10143,13 @@
         <v>286</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G212" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I212" s="19" t="s">
         <v>286</v>
@@ -9959,13 +10178,13 @@
         <v>286</v>
       </c>
       <c r="F213" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G213" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H213" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I213" s="19" t="s">
         <v>286</v>
@@ -9994,13 +10213,13 @@
         <v>286</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I214" s="19" t="s">
         <v>286</v>
@@ -10029,13 +10248,13 @@
         <v>286</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I215" s="19" t="s">
         <v>286</v>
@@ -10064,13 +10283,13 @@
         <v>286</v>
       </c>
       <c r="F216" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G216" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I216" s="19" t="s">
         <v>286</v>
@@ -10099,13 +10318,13 @@
         <v>286</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G217" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H217" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I217" s="19" t="s">
         <v>286</v>
@@ -10134,13 +10353,13 @@
         <v>286</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G218" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H218" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I218" s="19" t="s">
         <v>286</v>
@@ -10169,13 +10388,13 @@
         <v>286</v>
       </c>
       <c r="F219" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G219" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H219" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I219" s="19" t="s">
         <v>286</v>
@@ -10204,13 +10423,13 @@
         <v>286</v>
       </c>
       <c r="F220" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G220" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H220" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I220" s="19" t="s">
         <v>286</v>
@@ -10239,13 +10458,13 @@
         <v>286</v>
       </c>
       <c r="F221" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G221" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H221" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I221" s="19" t="s">
         <v>286</v>
@@ -10274,13 +10493,13 @@
         <v>286</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G222" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H222" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I222" s="19" t="s">
         <v>286</v>
@@ -10309,13 +10528,13 @@
         <v>286</v>
       </c>
       <c r="F223" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G223" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H223" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I223" s="19" t="s">
         <v>286</v>
@@ -10344,13 +10563,13 @@
         <v>286</v>
       </c>
       <c r="F224" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G224" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H224" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I224" s="19" t="s">
         <v>286</v>
@@ -10379,13 +10598,13 @@
         <v>286</v>
       </c>
       <c r="F225" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G225" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H225" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I225" s="19" t="s">
         <v>286</v>
@@ -10414,13 +10633,13 @@
         <v>286</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G226" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H226" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I226" s="19" t="s">
         <v>286</v>
@@ -10449,13 +10668,13 @@
         <v>286</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G227" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H227" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I227" s="19" t="s">
         <v>286</v>
@@ -10484,13 +10703,13 @@
         <v>286</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G228" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H228" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I228" s="19" t="s">
         <v>286</v>
@@ -10519,13 +10738,13 @@
         <v>286</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G229" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H229" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I229" s="19" t="s">
         <v>286</v>
@@ -10554,13 +10773,13 @@
         <v>286</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G230" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H230" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I230" s="19" t="s">
         <v>286</v>
@@ -10589,13 +10808,13 @@
         <v>286</v>
       </c>
       <c r="F231" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G231" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H231" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I231" s="19" t="s">
         <v>286</v>
@@ -10624,13 +10843,13 @@
         <v>286</v>
       </c>
       <c r="F232" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G232" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H232" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I232" s="19" t="s">
         <v>286</v>
@@ -10659,13 +10878,13 @@
         <v>286</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G233" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H233" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I233" s="19" t="s">
         <v>286</v>
@@ -10694,13 +10913,13 @@
         <v>286</v>
       </c>
       <c r="F234" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G234" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H234" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I234" s="19" t="s">
         <v>286</v>
@@ -10729,13 +10948,13 @@
         <v>286</v>
       </c>
       <c r="F235" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G235" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H235" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I235" s="19" t="s">
         <v>286</v>
@@ -10764,13 +10983,13 @@
         <v>286</v>
       </c>
       <c r="F236" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G236" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H236" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I236" s="19" t="s">
         <v>286</v>
@@ -10799,13 +11018,13 @@
         <v>286</v>
       </c>
       <c r="F237" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G237" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H237" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I237" s="19" t="s">
         <v>286</v>
@@ -10834,13 +11053,13 @@
         <v>286</v>
       </c>
       <c r="F238" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G238" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H238" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I238" s="19" t="s">
         <v>286</v>
@@ -10869,13 +11088,13 @@
         <v>286</v>
       </c>
       <c r="F239" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G239" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H239" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I239" s="19" t="s">
         <v>286</v>
@@ -10904,13 +11123,13 @@
         <v>286</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H240" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I240" s="19" t="s">
         <v>286</v>
@@ -10939,13 +11158,13 @@
         <v>286</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G241" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H241" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I241" s="19" t="s">
         <v>286</v>
@@ -10974,13 +11193,13 @@
         <v>286</v>
       </c>
       <c r="F242" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G242" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H242" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I242" s="19" t="s">
         <v>286</v>
@@ -11009,13 +11228,13 @@
         <v>286</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G243" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H243" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I243" s="19" t="s">
         <v>286</v>
@@ -11044,13 +11263,13 @@
         <v>286</v>
       </c>
       <c r="F244" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G244" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H244" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I244" s="19" t="s">
         <v>286</v>
@@ -11079,13 +11298,13 @@
         <v>286</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G245" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H245" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I245" s="19" t="s">
         <v>286</v>
@@ -11114,13 +11333,13 @@
         <v>286</v>
       </c>
       <c r="F246" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G246" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H246" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I246" s="19" t="s">
         <v>286</v>
@@ -11149,13 +11368,13 @@
         <v>286</v>
       </c>
       <c r="F247" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G247" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H247" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I247" s="19" t="s">
         <v>286</v>
@@ -11184,13 +11403,13 @@
         <v>286</v>
       </c>
       <c r="F248" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G248" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I248" s="19" t="s">
         <v>286</v>
@@ -11219,13 +11438,13 @@
         <v>286</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G249" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I249" s="19" t="s">
         <v>286</v>
@@ -11254,13 +11473,13 @@
         <v>286</v>
       </c>
       <c r="F250" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G250" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I250" s="19" t="s">
         <v>286</v>
@@ -11289,13 +11508,13 @@
         <v>286</v>
       </c>
       <c r="F251" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G251" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H251" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I251" s="19" t="s">
         <v>286</v>
@@ -11324,13 +11543,13 @@
         <v>286</v>
       </c>
       <c r="F252" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G252" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H252" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I252" s="19" t="s">
         <v>286</v>
@@ -11359,13 +11578,13 @@
         <v>286</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G253" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H253" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I253" s="19" t="s">
         <v>286</v>
@@ -11394,13 +11613,13 @@
         <v>286</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G254" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H254" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I254" s="19" t="s">
         <v>286</v>
@@ -11429,13 +11648,13 @@
         <v>286</v>
       </c>
       <c r="F255" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G255" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H255" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I255" s="19" t="s">
         <v>286</v>
@@ -11464,13 +11683,13 @@
         <v>286</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G256" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H256" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I256" s="19" t="s">
         <v>286</v>
@@ -11499,13 +11718,13 @@
         <v>286</v>
       </c>
       <c r="F257" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G257" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H257" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I257" s="19" t="s">
         <v>286</v>
@@ -11534,13 +11753,13 @@
         <v>286</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="G258" s="19" t="s">
         <v>286</v>
       </c>
       <c r="H258" s="19" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I258" s="19" t="s">
         <v>286</v>
@@ -11560,4 +11779,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/hans-os_ref.xlsx
+++ b/docs/hans-os_ref.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="550">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,10 +1408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-&gt; sizeof(TCB)*1024tasks&lt;1MB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-&gt; IDT Gate Descriptor: 100 (16B*100=1600B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,10 +1428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCB Pool (less than 1MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stack for Interrupt Service Routine (IST, 1MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1915,6 +1907,17 @@
   </si>
   <si>
     <t>Interrupt Vector Table in Real Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_mouseHandler</t>
+  </si>
+  <si>
+    <t>Task Pool (less than 1MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; sizeof(Task)*1024tasks&lt;1MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" s="20" t="s">
-        <v>409</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
@@ -2521,12 +2524,12 @@
         <v>392</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>403</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
@@ -2534,7 +2537,7 @@
         <v>391</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -2547,7 +2550,7 @@
         <v>390</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -2574,7 +2577,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C30" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -2587,7 +2590,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C33" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
@@ -2600,7 +2603,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C36" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
@@ -2624,7 +2627,7 @@
         <v>388</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -2638,7 +2641,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -2646,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
@@ -2657,12 +2660,12 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C47" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C48" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
@@ -2697,13 +2700,13 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C56" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
@@ -2711,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
@@ -2746,10 +2749,10 @@
   <dimension ref="B1:L258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2771,7 +2774,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2781,13 +2784,13 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>427</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>429</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>17</v>
@@ -2843,10 +2846,10 @@
         <v>281</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
@@ -2878,10 +2881,10 @@
         <v>285</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
@@ -2913,10 +2916,10 @@
         <v>297</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2948,10 +2951,10 @@
         <v>291</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2983,10 +2986,10 @@
         <v>294</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -3018,10 +3021,10 @@
         <v>298</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -3053,10 +3056,10 @@
         <v>299</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -3088,10 +3091,10 @@
         <v>303</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
@@ -3123,10 +3126,10 @@
         <v>307</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
@@ -3158,10 +3161,10 @@
         <v>308</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
@@ -3193,10 +3196,10 @@
         <v>312</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -3228,10 +3231,10 @@
         <v>315</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -3263,10 +3266,10 @@
         <v>318</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3298,10 +3301,10 @@
         <v>321</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -3333,10 +3336,10 @@
         <v>324</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -3368,10 +3371,10 @@
         <v>286</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -3403,10 +3406,10 @@
         <v>328</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -3438,10 +3441,10 @@
         <v>332</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
@@ -3473,10 +3476,10 @@
         <v>335</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -3508,10 +3511,10 @@
         <v>338</v>
       </c>
       <c r="K22" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>466</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
@@ -3543,10 +3546,10 @@
         <v>339</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
@@ -3578,10 +3581,10 @@
         <v>339</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -3613,10 +3616,10 @@
         <v>339</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -3648,10 +3651,10 @@
         <v>339</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
@@ -3683,10 +3686,10 @@
         <v>339</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
@@ -3718,10 +3721,10 @@
         <v>339</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
@@ -3753,10 +3756,10 @@
         <v>339</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
@@ -3788,10 +3791,10 @@
         <v>339</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
@@ -3823,10 +3826,10 @@
         <v>339</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
@@ -3858,10 +3861,10 @@
         <v>339</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
@@ -3893,10 +3896,10 @@
         <v>339</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
@@ -3928,10 +3931,10 @@
         <v>339</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
@@ -3939,7 +3942,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>349</v>
@@ -3954,7 +3957,7 @@
         <v>286</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>280</v>
@@ -3963,10 +3966,10 @@
         <v>286</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
@@ -3974,7 +3977,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>350</v>
@@ -3998,10 +4001,10 @@
         <v>286</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
@@ -4009,7 +4012,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>351</v>
@@ -4024,7 +4027,7 @@
         <v>286</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>280</v>
@@ -4033,10 +4036,10 @@
         <v>286</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
@@ -4044,7 +4047,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>352</v>
@@ -4068,10 +4071,10 @@
         <v>286</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
@@ -4079,7 +4082,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>353</v>
@@ -4103,10 +4106,10 @@
         <v>286</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -4114,7 +4117,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>354</v>
@@ -4129,7 +4132,7 @@
         <v>286</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>280</v>
@@ -4138,10 +4141,10 @@
         <v>286</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
@@ -4149,7 +4152,7 @@
         <v>59</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>355</v>
@@ -4164,7 +4167,7 @@
         <v>286</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>280</v>
@@ -4173,10 +4176,10 @@
         <v>286</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
@@ -4184,7 +4187,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>356</v>
@@ -4199,7 +4202,7 @@
         <v>286</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>280</v>
@@ -4208,10 +4211,10 @@
         <v>286</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -4219,7 +4222,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>357</v>
@@ -4243,10 +4246,10 @@
         <v>286</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -4254,7 +4257,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>358</v>
@@ -4278,10 +4281,10 @@
         <v>286</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
@@ -4289,7 +4292,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>359</v>
@@ -4313,10 +4316,10 @@
         <v>286</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
@@ -4324,7 +4327,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>360</v>
@@ -4348,10 +4351,10 @@
         <v>286</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
@@ -4359,7 +4362,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>361</v>
@@ -4383,10 +4386,10 @@
         <v>286</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>445</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
@@ -4394,7 +4397,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>362</v>
@@ -4418,10 +4421,10 @@
         <v>286</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
@@ -4429,7 +4432,7 @@
         <v>67</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>363</v>
@@ -4453,10 +4456,10 @@
         <v>286</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
@@ -4464,7 +4467,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>364</v>
@@ -4488,10 +4491,10 @@
         <v>286</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -4523,10 +4526,10 @@
         <v>286</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -4558,10 +4561,10 @@
         <v>286</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
@@ -4593,10 +4596,10 @@
         <v>286</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
@@ -4628,10 +4631,10 @@
         <v>286</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -4663,10 +4666,10 @@
         <v>286</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -4698,10 +4701,10 @@
         <v>286</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -4733,10 +4736,10 @@
         <v>286</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
@@ -4768,10 +4771,10 @@
         <v>286</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -4803,10 +4806,10 @@
         <v>286</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
@@ -4838,10 +4841,10 @@
         <v>286</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
@@ -4873,10 +4876,10 @@
         <v>286</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
@@ -4908,10 +4911,10 @@
         <v>286</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -4943,10 +4946,10 @@
         <v>286</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
@@ -4978,10 +4981,10 @@
         <v>286</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
@@ -5013,10 +5016,10 @@
         <v>286</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -5048,10 +5051,10 @@
         <v>286</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -5083,10 +5086,10 @@
         <v>286</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -5118,10 +5121,10 @@
         <v>286</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
@@ -5153,10 +5156,10 @@
         <v>286</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
@@ -5188,10 +5191,10 @@
         <v>286</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -5223,10 +5226,10 @@
         <v>286</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
@@ -5258,10 +5261,10 @@
         <v>286</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -5293,10 +5296,10 @@
         <v>286</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -5328,10 +5331,10 @@
         <v>286</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -5363,10 +5366,10 @@
         <v>286</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -5398,10 +5401,10 @@
         <v>286</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -5433,10 +5436,10 @@
         <v>286</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -5468,10 +5471,10 @@
         <v>286</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -5503,10 +5506,10 @@
         <v>286</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -5538,10 +5541,10 @@
         <v>286</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
@@ -5573,10 +5576,10 @@
         <v>286</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
@@ -5608,10 +5611,10 @@
         <v>286</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -5643,10 +5646,10 @@
         <v>286</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -5678,10 +5681,10 @@
         <v>286</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
@@ -5713,10 +5716,10 @@
         <v>286</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -5748,10 +5751,10 @@
         <v>286</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
@@ -5783,10 +5786,10 @@
         <v>286</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -5818,10 +5821,10 @@
         <v>286</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -5853,10 +5856,10 @@
         <v>286</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
@@ -5888,10 +5891,10 @@
         <v>286</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
@@ -5923,10 +5926,10 @@
         <v>286</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
@@ -5958,10 +5961,10 @@
         <v>286</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
@@ -5993,10 +5996,10 @@
         <v>286</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
@@ -6028,10 +6031,10 @@
         <v>286</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
@@ -6063,10 +6066,10 @@
         <v>286</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
@@ -6098,10 +6101,10 @@
         <v>286</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
@@ -6133,10 +6136,10 @@
         <v>286</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
@@ -6168,10 +6171,10 @@
         <v>286</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
@@ -6203,10 +6206,10 @@
         <v>286</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
@@ -6238,10 +6241,10 @@
         <v>286</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.4">
@@ -6273,10 +6276,10 @@
         <v>286</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.4">
@@ -6308,10 +6311,10 @@
         <v>286</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
@@ -11802,12 +11805,12 @@
   <sheetData>
     <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>17</v>
@@ -11818,255 +11821,255 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/docs/hans-os_ref.xlsx
+++ b/docs/hans-os_ref.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="551">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,8 +1356,549 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-&gt; File System Cache Buffer (16*512B+32*4KB=136KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; RAM Disk (8MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 64K/8+32K/8+…+2/8+1/8=16386B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 8MB=8KB*1024tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; IDT Gate Descriptor: 100 (16B*100=1600B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; PML4T: 1 (4KB), PDPT: 1 (4KB), PD: 64 (4KB*64=256KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 2B*80*25=4000B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; include Entry Point, copy to 2MB address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kernel64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack for Interrupt Service Routine (IST, 1MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIC Intin Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Port 2 (Printer Port 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallel Port 1 (Printer Port 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_isrTimer</t>
+  </si>
+  <si>
+    <t>k_isrKeyboard</t>
+  </si>
+  <si>
+    <t>k_isrSlavePic</t>
+  </si>
+  <si>
+    <t>k_isrRtc</t>
+  </si>
+  <si>
+    <t>k_isrReserved</t>
+  </si>
+  <si>
+    <t>k_isrNotUsed1</t>
+  </si>
+  <si>
+    <t>k_isrNotUsed2</t>
+  </si>
+  <si>
+    <t>k_isrMouse</t>
+  </si>
+  <si>
+    <t>k_isrCoprocessor</t>
+  </si>
+  <si>
+    <t>k_isrHdd1</t>
+  </si>
+  <si>
+    <t>k_isrHdd2</t>
+  </si>
+  <si>
+    <t>k_timerHandler</t>
+  </si>
+  <si>
+    <t>k_keyboardHandler</t>
+  </si>
+  <si>
+    <t>k_commonInterruptHandler</t>
+  </si>
+  <si>
+    <t>k_hddHandler</t>
+  </si>
+  <si>
+    <t>k_isrDivideError</t>
+  </si>
+  <si>
+    <t>k_isrDebug</t>
+  </si>
+  <si>
+    <t>k_isrNmi</t>
+  </si>
+  <si>
+    <t>k_isrBreakPoint</t>
+  </si>
+  <si>
+    <t>k_isrOverflow</t>
+  </si>
+  <si>
+    <t>k_isrBoundRangeExceeded</t>
+  </si>
+  <si>
+    <t>k_isrInvalidOpcode</t>
+  </si>
+  <si>
+    <t>k_isrDeviceNotAvailable</t>
+  </si>
+  <si>
+    <t>k_isrDoubleFault</t>
+  </si>
+  <si>
+    <t>k_isrCoprocessorSegmentOverrun</t>
+  </si>
+  <si>
+    <t>k_isrInvalidTss</t>
+  </si>
+  <si>
+    <t>k_isrSegmentNotPresent</t>
+  </si>
+  <si>
+    <t>k_isrStackSegmentFault</t>
+  </si>
+  <si>
+    <t>k_isrGeneralProtection</t>
+  </si>
+  <si>
+    <t>k_isrPageFault</t>
+  </si>
+  <si>
+    <t>k_isr15</t>
+  </si>
+  <si>
+    <t>k_isrFpuError</t>
+  </si>
+  <si>
+    <t>k_isrAlignmentCheck</t>
+  </si>
+  <si>
+    <t>k_isrMachineCheck</t>
+  </si>
+  <si>
+    <t>k_isrSimdError</t>
+  </si>
+  <si>
+    <t>k_isrEtcException</t>
+  </si>
+  <si>
+    <t>k_commonExceptionHandler</t>
+  </si>
+  <si>
+    <t>k_deviceNotAvailableHandler</t>
+  </si>
+  <si>
+    <t>k_isrEtcInterrupt</t>
+  </si>
+  <si>
+    <t>k_isrSerialPort2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_isrSerialPort1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_isrParallelPort2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_isrParallelPort1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_isrFloppyDisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; Null (8B)/Code (8B)/Data (8B)/TSS (256B=16B*16cores) Segment Descriptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSS (1664B=104B*16cores)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; BSP: 1MB, AP: 1MB=64KB*16cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; divided by 16cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video Memory in Text Mode (4000B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBE Mode Info Block (256B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7F00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; This block has the field indicating video memory address in graphic mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupt Descriptor Table</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x70</t>
+  </si>
+  <si>
+    <t>0x74</t>
+  </si>
+  <si>
+    <t>0x75</t>
+  </si>
+  <si>
+    <t>0x76</t>
+  </si>
+  <si>
+    <t>CPU Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOS Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 0 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 2 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 1 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 3 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 4 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 5 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 6 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 7 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 8 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 12 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 13 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ 14 Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide by Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single Step for Debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-maskable Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakpoint Instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overflow trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print Screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid Opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coprocessor Not Available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer (PIT)</t>
+  </si>
+  <si>
+    <t>Timer (PIT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slave PIC</t>
+  </si>
+  <si>
+    <t>Slave PIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floppy Disk</t>
+  </si>
+  <si>
+    <t>Floppy Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS/2 Keyboard</t>
+  </si>
+  <si>
+    <t>Serial Port 2 (COM Port 2)</t>
+  </si>
+  <si>
+    <t>Serial Port 1 (COM Port 1)</t>
+  </si>
+  <si>
+    <t>Parallel Port 2 (Printer Port 2)</t>
+  </si>
+  <si>
+    <t>Parallel Port 1 (Printer Port 1)</t>
+  </si>
+  <si>
+    <t>Video Control Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk I/O Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>PS/2 Mouse</t>
+  </si>
+  <si>
+    <t>Coprocessor</t>
+  </si>
+  <si>
+    <t>Hard Disk (HDD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupt Vector Table in Real Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_mouseHandler</t>
+  </si>
+  <si>
+    <t>Task Pool (less than 1MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; sizeof(Task)*1024tasks&lt;1MB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; Window Pool (sizeof(Window)*2048windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; sizeof(byte)*64K=64KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; sizeof(Bitmap)*17=272B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>-&gt; File/Directory Handle Pool (sizeof(FILE)</t>
+      <t>-&gt; File/Directory Handle Pool (sizeof(File)</t>
     </r>
     <r>
       <rPr>
@@ -1368,7 +1909,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*3072</t>
+      <t>*3072handles</t>
     </r>
     <r>
       <rPr>
@@ -1381,543 +1922,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; File System Cache Buffer (16*512B+32*4KB=136KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; RAM Disk (8MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; 64K/8+32K/8+…+2/8+1/8=16386B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; sizeof(BITMAP)*17=272B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; sizeof(BYTE)*64K=64KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; 8MB=8KB*1024tasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; IDT Gate Descriptor: 100 (16B*100=1600B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; PML4T: 1 (4KB), PDPT: 1 (4KB), PD: 64 (4KB*64=256KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; 2B*80*25=4000B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; include Entry Point, copy to 2MB address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kernel64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stack for Interrupt Service Routine (IST, 1MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIC Intin Pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parallel Port 2 (Printer Port 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parallel Port 1 (Printer Port 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_isrTimer</t>
-  </si>
-  <si>
-    <t>k_isrKeyboard</t>
-  </si>
-  <si>
-    <t>k_isrSlavePic</t>
-  </si>
-  <si>
-    <t>k_isrRtc</t>
-  </si>
-  <si>
-    <t>k_isrReserved</t>
-  </si>
-  <si>
-    <t>k_isrNotUsed1</t>
-  </si>
-  <si>
-    <t>k_isrNotUsed2</t>
-  </si>
-  <si>
-    <t>k_isrMouse</t>
-  </si>
-  <si>
-    <t>k_isrCoprocessor</t>
-  </si>
-  <si>
-    <t>k_isrHdd1</t>
-  </si>
-  <si>
-    <t>k_isrHdd2</t>
-  </si>
-  <si>
-    <t>k_timerHandler</t>
-  </si>
-  <si>
-    <t>k_keyboardHandler</t>
-  </si>
-  <si>
-    <t>k_commonInterruptHandler</t>
-  </si>
-  <si>
-    <t>k_hddHandler</t>
-  </si>
-  <si>
-    <t>k_isrDivideError</t>
-  </si>
-  <si>
-    <t>k_isrDebug</t>
-  </si>
-  <si>
-    <t>k_isrNmi</t>
-  </si>
-  <si>
-    <t>k_isrBreakPoint</t>
-  </si>
-  <si>
-    <t>k_isrOverflow</t>
-  </si>
-  <si>
-    <t>k_isrBoundRangeExceeded</t>
-  </si>
-  <si>
-    <t>k_isrInvalidOpcode</t>
-  </si>
-  <si>
-    <t>k_isrDeviceNotAvailable</t>
-  </si>
-  <si>
-    <t>k_isrDoubleFault</t>
-  </si>
-  <si>
-    <t>k_isrCoprocessorSegmentOverrun</t>
-  </si>
-  <si>
-    <t>k_isrInvalidTss</t>
-  </si>
-  <si>
-    <t>k_isrSegmentNotPresent</t>
-  </si>
-  <si>
-    <t>k_isrStackSegmentFault</t>
-  </si>
-  <si>
-    <t>k_isrGeneralProtection</t>
-  </si>
-  <si>
-    <t>k_isrPageFault</t>
-  </si>
-  <si>
-    <t>k_isr15</t>
-  </si>
-  <si>
-    <t>k_isrFpuError</t>
-  </si>
-  <si>
-    <t>k_isrAlignmentCheck</t>
-  </si>
-  <si>
-    <t>k_isrMachineCheck</t>
-  </si>
-  <si>
-    <t>k_isrSimdError</t>
-  </si>
-  <si>
-    <t>k_isrEtcException</t>
-  </si>
-  <si>
-    <t>k_commonExceptionHandler</t>
-  </si>
-  <si>
-    <t>k_deviceNotAvailableHandler</t>
-  </si>
-  <si>
-    <t>k_isrEtcInterrupt</t>
-  </si>
-  <si>
-    <t>k_isrSerialPort2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_isrSerialPort1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_isrParallelPort2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_isrParallelPort1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_isrFloppyDisk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; Null (8B)/Code (8B)/Data (8B)/TSS (256B=16B*16cores) Segment Descriptor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSS (1664B=104B*16cores)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; BSP: 1MB, AP: 1MB=64KB*16cores</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; divided by 16cores</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Video Memory in Text Mode (4000B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBE Mode Info Block (256B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7F00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; This block has the field indicating video memory address in graphic mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interrupt Descriptor Table</t>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
-    <t>0x01</t>
-  </si>
-  <si>
-    <t>0x02</t>
-  </si>
-  <si>
-    <t>0x03</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>0x05</t>
-  </si>
-  <si>
-    <t>0x06</t>
-  </si>
-  <si>
-    <t>0x07</t>
-  </si>
-  <si>
-    <t>0x08</t>
-  </si>
-  <si>
-    <t>0x09</t>
-  </si>
-  <si>
-    <t>0x0A</t>
-  </si>
-  <si>
-    <t>0x0B</t>
-  </si>
-  <si>
-    <t>0x0C</t>
-  </si>
-  <si>
-    <t>0x0D</t>
-  </si>
-  <si>
-    <t>0x0E</t>
-  </si>
-  <si>
-    <t>0x0F</t>
-  </si>
-  <si>
-    <t>0x10</t>
-  </si>
-  <si>
-    <t>0x13</t>
-  </si>
-  <si>
-    <t>0x15</t>
-  </si>
-  <si>
-    <t>0x70</t>
-  </si>
-  <si>
-    <t>0x74</t>
-  </si>
-  <si>
-    <t>0x75</t>
-  </si>
-  <si>
-    <t>0x76</t>
-  </si>
-  <si>
-    <t>CPU Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIOS Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 0 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 2 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 1 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 3 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 4 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 5 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 6 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 7 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 8 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 12 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 13 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRQ 14 Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Divide by Zero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Step for Debugging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-maskable Interrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breakpoint Instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overflow trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Print Screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid Opcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coprocessor Not Available</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timer (PIT)</t>
-  </si>
-  <si>
-    <t>Timer (PIT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slave PIC</t>
-  </si>
-  <si>
-    <t>Slave PIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floppy Disk</t>
-  </si>
-  <si>
-    <t>Floppy Disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS/2 Keyboard</t>
-  </si>
-  <si>
-    <t>Serial Port 2 (COM Port 2)</t>
-  </si>
-  <si>
-    <t>Serial Port 1 (COM Port 1)</t>
-  </si>
-  <si>
-    <t>Parallel Port 2 (Printer Port 2)</t>
-  </si>
-  <si>
-    <t>Parallel Port 1 (Printer Port 1)</t>
-  </si>
-  <si>
-    <t>Video Control Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disk I/O Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RTC</t>
-  </si>
-  <si>
-    <t>PS/2 Mouse</t>
-  </si>
-  <si>
-    <t>Coprocessor</t>
-  </si>
-  <si>
-    <t>Hard Disk (HDD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interrupt Vector Table in Real Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_mouseHandler</t>
-  </si>
-  <si>
-    <t>Task Pool (less than 1MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; sizeof(Task)*1024tasks&lt;1MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2413,7 +2417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C61"/>
+  <dimension ref="B1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2452,290 +2456,295 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C6" s="21" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C9" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C10" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C11" s="21" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C13" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C14" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C12" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C13" s="10" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C24" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C26" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C31" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C14" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C15" s="10" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C36" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C37" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C40" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="6" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C44" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="20" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C48" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C49" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C50" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C52" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C54" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C57" s="21" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C29" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C30" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C31" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C35" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C36" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C39" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C43" s="9" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C47" s="11" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="12"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C53" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C55" s="19"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C56" s="21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C58" s="11" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C59" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C60" s="3"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C62" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2774,7 +2783,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2784,13 +2793,13 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>17</v>
@@ -2846,10 +2855,10 @@
         <v>281</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
@@ -2881,10 +2890,10 @@
         <v>285</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
@@ -2916,10 +2925,10 @@
         <v>297</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2951,10 +2960,10 @@
         <v>291</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2986,10 +2995,10 @@
         <v>294</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -3021,10 +3030,10 @@
         <v>298</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -3056,10 +3065,10 @@
         <v>299</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -3091,10 +3100,10 @@
         <v>303</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
@@ -3126,10 +3135,10 @@
         <v>307</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
@@ -3161,10 +3170,10 @@
         <v>308</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
@@ -3196,10 +3205,10 @@
         <v>312</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -3231,10 +3240,10 @@
         <v>315</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -3266,10 +3275,10 @@
         <v>318</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3301,10 +3310,10 @@
         <v>321</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -3336,10 +3345,10 @@
         <v>324</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -3371,10 +3380,10 @@
         <v>286</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -3406,10 +3415,10 @@
         <v>328</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -3441,10 +3450,10 @@
         <v>332</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
@@ -3476,10 +3485,10 @@
         <v>335</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>463</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -3511,10 +3520,10 @@
         <v>338</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
@@ -3546,10 +3555,10 @@
         <v>339</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
@@ -3581,10 +3590,10 @@
         <v>339</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -3616,10 +3625,10 @@
         <v>339</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -3651,10 +3660,10 @@
         <v>339</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
@@ -3686,10 +3695,10 @@
         <v>339</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
@@ -3721,10 +3730,10 @@
         <v>339</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
@@ -3756,10 +3765,10 @@
         <v>339</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
@@ -3791,10 +3800,10 @@
         <v>339</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
@@ -3826,10 +3835,10 @@
         <v>339</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
@@ -3861,10 +3870,10 @@
         <v>339</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
@@ -3896,10 +3905,10 @@
         <v>339</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
@@ -3931,10 +3940,10 @@
         <v>339</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
@@ -3942,7 +3951,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>349</v>
@@ -3957,7 +3966,7 @@
         <v>286</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>280</v>
@@ -3966,10 +3975,10 @@
         <v>286</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
@@ -3977,7 +3986,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>350</v>
@@ -4001,10 +4010,10 @@
         <v>286</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
@@ -4012,7 +4021,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>351</v>
@@ -4027,7 +4036,7 @@
         <v>286</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>280</v>
@@ -4036,10 +4045,10 @@
         <v>286</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
@@ -4047,7 +4056,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>352</v>
@@ -4071,10 +4080,10 @@
         <v>286</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
@@ -4082,7 +4091,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>353</v>
@@ -4106,10 +4115,10 @@
         <v>286</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -4117,7 +4126,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>354</v>
@@ -4132,7 +4141,7 @@
         <v>286</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>280</v>
@@ -4141,10 +4150,10 @@
         <v>286</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
@@ -4152,7 +4161,7 @@
         <v>59</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>355</v>
@@ -4167,7 +4176,7 @@
         <v>286</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>280</v>
@@ -4176,10 +4185,10 @@
         <v>286</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
@@ -4187,7 +4196,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>356</v>
@@ -4202,7 +4211,7 @@
         <v>286</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>280</v>
@@ -4211,10 +4220,10 @@
         <v>286</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -4222,7 +4231,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>357</v>
@@ -4246,10 +4255,10 @@
         <v>286</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -4257,7 +4266,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>358</v>
@@ -4281,10 +4290,10 @@
         <v>286</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
@@ -4292,7 +4301,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>359</v>
@@ -4316,10 +4325,10 @@
         <v>286</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
@@ -4327,7 +4336,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>360</v>
@@ -4351,10 +4360,10 @@
         <v>286</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
@@ -4362,7 +4371,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>361</v>
@@ -4386,10 +4395,10 @@
         <v>286</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
@@ -4397,7 +4406,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>362</v>
@@ -4421,10 +4430,10 @@
         <v>286</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
@@ -4432,7 +4441,7 @@
         <v>67</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>363</v>
@@ -4456,10 +4465,10 @@
         <v>286</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
@@ -4467,7 +4476,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>364</v>
@@ -4491,10 +4500,10 @@
         <v>286</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -4526,10 +4535,10 @@
         <v>286</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -4561,10 +4570,10 @@
         <v>286</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
@@ -4596,10 +4605,10 @@
         <v>286</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
@@ -4631,10 +4640,10 @@
         <v>286</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -4666,10 +4675,10 @@
         <v>286</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -4701,10 +4710,10 @@
         <v>286</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -4736,10 +4745,10 @@
         <v>286</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
@@ -4771,10 +4780,10 @@
         <v>286</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -4806,10 +4815,10 @@
         <v>286</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
@@ -4841,10 +4850,10 @@
         <v>286</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
@@ -4876,10 +4885,10 @@
         <v>286</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
@@ -4911,10 +4920,10 @@
         <v>286</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -4946,10 +4955,10 @@
         <v>286</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
@@ -4981,10 +4990,10 @@
         <v>286</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
@@ -5016,10 +5025,10 @@
         <v>286</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -5051,10 +5060,10 @@
         <v>286</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -5086,10 +5095,10 @@
         <v>286</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -5121,10 +5130,10 @@
         <v>286</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
@@ -5156,10 +5165,10 @@
         <v>286</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
@@ -5191,10 +5200,10 @@
         <v>286</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -5226,10 +5235,10 @@
         <v>286</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
@@ -5261,10 +5270,10 @@
         <v>286</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -5296,10 +5305,10 @@
         <v>286</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -5331,10 +5340,10 @@
         <v>286</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -5366,10 +5375,10 @@
         <v>286</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -5401,10 +5410,10 @@
         <v>286</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -5436,10 +5445,10 @@
         <v>286</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -5471,10 +5480,10 @@
         <v>286</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -5506,10 +5515,10 @@
         <v>286</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -5541,10 +5550,10 @@
         <v>286</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
@@ -5576,10 +5585,10 @@
         <v>286</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
@@ -5611,10 +5620,10 @@
         <v>286</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -5646,10 +5655,10 @@
         <v>286</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -5681,10 +5690,10 @@
         <v>286</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
@@ -5716,10 +5725,10 @@
         <v>286</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -5751,10 +5760,10 @@
         <v>286</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
@@ -5786,10 +5795,10 @@
         <v>286</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -5821,10 +5830,10 @@
         <v>286</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -5856,10 +5865,10 @@
         <v>286</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
@@ -5891,10 +5900,10 @@
         <v>286</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
@@ -5926,10 +5935,10 @@
         <v>286</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
@@ -5961,10 +5970,10 @@
         <v>286</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
@@ -5996,10 +6005,10 @@
         <v>286</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
@@ -6031,10 +6040,10 @@
         <v>286</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
@@ -6066,10 +6075,10 @@
         <v>286</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
@@ -6101,10 +6110,10 @@
         <v>286</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
@@ -6136,10 +6145,10 @@
         <v>286</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
@@ -6171,10 +6180,10 @@
         <v>286</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
@@ -6206,10 +6215,10 @@
         <v>286</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
@@ -6241,10 +6250,10 @@
         <v>286</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.4">
@@ -6276,10 +6285,10 @@
         <v>286</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.4">
@@ -6311,10 +6320,10 @@
         <v>286</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
@@ -11805,12 +11814,12 @@
   <sheetData>
     <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>17</v>
@@ -11821,255 +11830,255 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="22" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="22" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="22" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/docs/hans-os_ref.xlsx
+++ b/docs/hans-os_ref.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="552">
   <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,10 +1276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stack Pool (8MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#NM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,10 +1337,6 @@
   </si>
   <si>
     <t>0x800000 (8MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1100000 (17MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1922,6 +1914,18 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack Pool (8MB): deprecated, moved to dynamic memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA00000 (10MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; Task Stack (64KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2417,7 +2421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C62"/>
+  <dimension ref="B1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2431,12 +2435,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="C1" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2445,306 +2449,311 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C6" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C9" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C10" s="21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C13" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C14" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="10" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C11" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C12" s="21" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C16" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C27" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C31" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C32" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C13" s="9" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C37" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C38" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C41" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C45" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C49" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C50" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C51" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C53" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C14" s="10" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C15" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C20" s="20" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C55" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C58" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C24" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C31" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C32" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C36" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C38" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C40" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C44" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C50" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="12"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C52" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C53" s="12"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="21" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C59" s="11" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C60" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C61" s="3"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C63" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2783,23 +2792,23 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="H1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>422</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>424</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>17</v>
@@ -2855,10 +2864,10 @@
         <v>281</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
@@ -2890,10 +2899,10 @@
         <v>285</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
@@ -2925,10 +2934,10 @@
         <v>297</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
@@ -2960,10 +2969,10 @@
         <v>291</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -2995,10 +3004,10 @@
         <v>294</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -3030,10 +3039,10 @@
         <v>298</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -3065,10 +3074,10 @@
         <v>299</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
@@ -3088,7 +3097,7 @@
         <v>279</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>302</v>
@@ -3100,10 +3109,10 @@
         <v>303</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
@@ -3135,10 +3144,10 @@
         <v>307</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
@@ -3170,10 +3179,10 @@
         <v>308</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
@@ -3205,10 +3214,10 @@
         <v>312</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
@@ -3240,10 +3249,10 @@
         <v>315</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
@@ -3275,10 +3284,10 @@
         <v>318</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
@@ -3310,10 +3319,10 @@
         <v>321</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
@@ -3345,10 +3354,10 @@
         <v>324</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
@@ -3380,10 +3389,10 @@
         <v>286</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
@@ -3415,10 +3424,10 @@
         <v>328</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
@@ -3450,10 +3459,10 @@
         <v>332</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.4">
@@ -3485,10 +3494,10 @@
         <v>335</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.4">
@@ -3520,10 +3529,10 @@
         <v>338</v>
       </c>
       <c r="K22" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.4">
@@ -3555,10 +3564,10 @@
         <v>339</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
@@ -3590,10 +3599,10 @@
         <v>339</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
@@ -3625,10 +3634,10 @@
         <v>339</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
@@ -3660,10 +3669,10 @@
         <v>339</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
@@ -3695,10 +3704,10 @@
         <v>339</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.4">
@@ -3730,10 +3739,10 @@
         <v>339</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
@@ -3765,10 +3774,10 @@
         <v>339</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
@@ -3800,10 +3809,10 @@
         <v>339</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
@@ -3835,10 +3844,10 @@
         <v>339</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
@@ -3870,10 +3879,10 @@
         <v>339</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
@@ -3905,10 +3914,10 @@
         <v>339</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
@@ -3940,10 +3949,10 @@
         <v>339</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
@@ -3951,7 +3960,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>349</v>
@@ -3966,7 +3975,7 @@
         <v>286</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>280</v>
@@ -3975,10 +3984,10 @@
         <v>286</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
@@ -3986,7 +3995,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>350</v>
@@ -4010,10 +4019,10 @@
         <v>286</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
@@ -4021,7 +4030,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>351</v>
@@ -4036,7 +4045,7 @@
         <v>286</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I37" s="18" t="s">
         <v>280</v>
@@ -4045,10 +4054,10 @@
         <v>286</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
@@ -4056,7 +4065,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>352</v>
@@ -4080,10 +4089,10 @@
         <v>286</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
@@ -4091,7 +4100,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>353</v>
@@ -4115,10 +4124,10 @@
         <v>286</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
@@ -4126,7 +4135,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>354</v>
@@ -4141,7 +4150,7 @@
         <v>286</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>280</v>
@@ -4150,10 +4159,10 @@
         <v>286</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
@@ -4161,7 +4170,7 @@
         <v>59</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>355</v>
@@ -4176,7 +4185,7 @@
         <v>286</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>280</v>
@@ -4185,10 +4194,10 @@
         <v>286</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
@@ -4196,7 +4205,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>356</v>
@@ -4211,7 +4220,7 @@
         <v>286</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>280</v>
@@ -4220,10 +4229,10 @@
         <v>286</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
@@ -4231,7 +4240,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>357</v>
@@ -4255,10 +4264,10 @@
         <v>286</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
@@ -4266,7 +4275,7 @@
         <v>62</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>358</v>
@@ -4290,10 +4299,10 @@
         <v>286</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
@@ -4301,7 +4310,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>359</v>
@@ -4325,10 +4334,10 @@
         <v>286</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
@@ -4336,7 +4345,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>360</v>
@@ -4360,10 +4369,10 @@
         <v>286</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
@@ -4371,7 +4380,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>361</v>
@@ -4395,10 +4404,10 @@
         <v>286</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
@@ -4406,7 +4415,7 @@
         <v>66</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>362</v>
@@ -4430,10 +4439,10 @@
         <v>286</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
@@ -4441,7 +4450,7 @@
         <v>67</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>363</v>
@@ -4465,10 +4474,10 @@
         <v>286</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
@@ -4476,7 +4485,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>364</v>
@@ -4500,10 +4509,10 @@
         <v>286</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -4535,10 +4544,10 @@
         <v>286</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -4570,10 +4579,10 @@
         <v>286</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
@@ -4605,10 +4614,10 @@
         <v>286</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
@@ -4640,10 +4649,10 @@
         <v>286</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -4675,10 +4684,10 @@
         <v>286</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -4710,10 +4719,10 @@
         <v>286</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -4745,10 +4754,10 @@
         <v>286</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
@@ -4780,10 +4789,10 @@
         <v>286</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -4815,10 +4824,10 @@
         <v>286</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
@@ -4850,10 +4859,10 @@
         <v>286</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
@@ -4885,10 +4894,10 @@
         <v>286</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
@@ -4920,10 +4929,10 @@
         <v>286</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -4955,10 +4964,10 @@
         <v>286</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
@@ -4990,10 +4999,10 @@
         <v>286</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
@@ -5025,10 +5034,10 @@
         <v>286</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -5060,10 +5069,10 @@
         <v>286</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -5095,10 +5104,10 @@
         <v>286</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -5130,10 +5139,10 @@
         <v>286</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
@@ -5165,10 +5174,10 @@
         <v>286</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
@@ -5200,10 +5209,10 @@
         <v>286</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -5235,10 +5244,10 @@
         <v>286</v>
       </c>
       <c r="K71" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
@@ -5270,10 +5279,10 @@
         <v>286</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -5305,10 +5314,10 @@
         <v>286</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -5340,10 +5349,10 @@
         <v>286</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -5375,10 +5384,10 @@
         <v>286</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -5410,10 +5419,10 @@
         <v>286</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -5445,10 +5454,10 @@
         <v>286</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -5480,10 +5489,10 @@
         <v>286</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -5515,10 +5524,10 @@
         <v>286</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -5550,10 +5559,10 @@
         <v>286</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
@@ -5585,10 +5594,10 @@
         <v>286</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
@@ -5620,10 +5629,10 @@
         <v>286</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -5655,10 +5664,10 @@
         <v>286</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -5690,10 +5699,10 @@
         <v>286</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
@@ -5725,10 +5734,10 @@
         <v>286</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -5760,10 +5769,10 @@
         <v>286</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
@@ -5795,10 +5804,10 @@
         <v>286</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -5830,10 +5839,10 @@
         <v>286</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -5865,10 +5874,10 @@
         <v>286</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
@@ -5900,10 +5909,10 @@
         <v>286</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
@@ -5935,10 +5944,10 @@
         <v>286</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.4">
@@ -5970,10 +5979,10 @@
         <v>286</v>
       </c>
       <c r="K92" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.4">
@@ -6005,10 +6014,10 @@
         <v>286</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.4">
@@ -6040,10 +6049,10 @@
         <v>286</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.4">
@@ -6075,10 +6084,10 @@
         <v>286</v>
       </c>
       <c r="K95" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.4">
@@ -6110,10 +6119,10 @@
         <v>286</v>
       </c>
       <c r="K96" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.4">
@@ -6145,10 +6154,10 @@
         <v>286</v>
       </c>
       <c r="K97" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
@@ -6180,10 +6189,10 @@
         <v>286</v>
       </c>
       <c r="K98" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
@@ -6215,10 +6224,10 @@
         <v>286</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.4">
@@ -6250,10 +6259,10 @@
         <v>286</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.4">
@@ -6285,10 +6294,10 @@
         <v>286</v>
       </c>
       <c r="K101" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L101" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.4">
@@ -6320,10 +6329,10 @@
         <v>286</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.4">
@@ -6346,7 +6355,7 @@
         <v>286</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I103" s="19" t="s">
         <v>286</v>
@@ -6381,7 +6390,7 @@
         <v>286</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I104" s="19" t="s">
         <v>286</v>
@@ -6416,7 +6425,7 @@
         <v>286</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I105" s="19" t="s">
         <v>286</v>
@@ -6451,7 +6460,7 @@
         <v>286</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I106" s="19" t="s">
         <v>286</v>
@@ -6486,7 +6495,7 @@
         <v>286</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>286</v>
@@ -6521,7 +6530,7 @@
         <v>286</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I108" s="19" t="s">
         <v>286</v>
@@ -6556,7 +6565,7 @@
         <v>286</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>286</v>
@@ -6591,7 +6600,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I110" s="19" t="s">
         <v>286</v>
@@ -6626,7 +6635,7 @@
         <v>286</v>
       </c>
       <c r="H111" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I111" s="19" t="s">
         <v>286</v>
@@ -6661,7 +6670,7 @@
         <v>286</v>
       </c>
       <c r="H112" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I112" s="19" t="s">
         <v>286</v>
@@ -6696,7 +6705,7 @@
         <v>286</v>
       </c>
       <c r="H113" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I113" s="19" t="s">
         <v>286</v>
@@ -6731,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="H114" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I114" s="19" t="s">
         <v>286</v>
@@ -6766,7 +6775,7 @@
         <v>286</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I115" s="19" t="s">
         <v>286</v>
@@ -6801,7 +6810,7 @@
         <v>286</v>
       </c>
       <c r="H116" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I116" s="19" t="s">
         <v>286</v>
@@ -6836,7 +6845,7 @@
         <v>286</v>
       </c>
       <c r="H117" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I117" s="19" t="s">
         <v>286</v>
@@ -6871,7 +6880,7 @@
         <v>286</v>
       </c>
       <c r="H118" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I118" s="19" t="s">
         <v>286</v>
@@ -6906,7 +6915,7 @@
         <v>286</v>
       </c>
       <c r="H119" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I119" s="19" t="s">
         <v>286</v>
@@ -6941,7 +6950,7 @@
         <v>286</v>
       </c>
       <c r="H120" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I120" s="19" t="s">
         <v>286</v>
@@ -6976,7 +6985,7 @@
         <v>286</v>
       </c>
       <c r="H121" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I121" s="19" t="s">
         <v>286</v>
@@ -7011,7 +7020,7 @@
         <v>286</v>
       </c>
       <c r="H122" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I122" s="19" t="s">
         <v>286</v>
@@ -7046,7 +7055,7 @@
         <v>286</v>
       </c>
       <c r="H123" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I123" s="19" t="s">
         <v>286</v>
@@ -7081,7 +7090,7 @@
         <v>286</v>
       </c>
       <c r="H124" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I124" s="19" t="s">
         <v>286</v>
@@ -7116,7 +7125,7 @@
         <v>286</v>
       </c>
       <c r="H125" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I125" s="19" t="s">
         <v>286</v>
@@ -7151,7 +7160,7 @@
         <v>286</v>
       </c>
       <c r="H126" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I126" s="19" t="s">
         <v>286</v>
@@ -7186,7 +7195,7 @@
         <v>286</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I127" s="19" t="s">
         <v>286</v>
@@ -7221,7 +7230,7 @@
         <v>286</v>
       </c>
       <c r="H128" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I128" s="19" t="s">
         <v>286</v>
@@ -7256,7 +7265,7 @@
         <v>286</v>
       </c>
       <c r="H129" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I129" s="19" t="s">
         <v>286</v>
@@ -7291,7 +7300,7 @@
         <v>286</v>
       </c>
       <c r="H130" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I130" s="19" t="s">
         <v>286</v>
@@ -7326,7 +7335,7 @@
         <v>286</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I131" s="19" t="s">
         <v>286</v>
@@ -7361,7 +7370,7 @@
         <v>286</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I132" s="19" t="s">
         <v>286</v>
@@ -7396,7 +7405,7 @@
         <v>286</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I133" s="19" t="s">
         <v>286</v>
@@ -7431,7 +7440,7 @@
         <v>286</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I134" s="19" t="s">
         <v>286</v>
@@ -7466,7 +7475,7 @@
         <v>286</v>
       </c>
       <c r="H135" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I135" s="19" t="s">
         <v>286</v>
@@ -7501,7 +7510,7 @@
         <v>286</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I136" s="19" t="s">
         <v>286</v>
@@ -7536,7 +7545,7 @@
         <v>286</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I137" s="19" t="s">
         <v>286</v>
@@ -7571,7 +7580,7 @@
         <v>286</v>
       </c>
       <c r="H138" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I138" s="19" t="s">
         <v>286</v>
@@ -7606,7 +7615,7 @@
         <v>286</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I139" s="19" t="s">
         <v>286</v>
@@ -7641,7 +7650,7 @@
         <v>286</v>
       </c>
       <c r="H140" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I140" s="19" t="s">
         <v>286</v>
@@ -7676,7 +7685,7 @@
         <v>286</v>
       </c>
       <c r="H141" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I141" s="19" t="s">
         <v>286</v>
@@ -7711,7 +7720,7 @@
         <v>286</v>
       </c>
       <c r="H142" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I142" s="19" t="s">
         <v>286</v>
@@ -7746,7 +7755,7 @@
         <v>286</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I143" s="19" t="s">
         <v>286</v>
@@ -7781,7 +7790,7 @@
         <v>286</v>
       </c>
       <c r="H144" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I144" s="19" t="s">
         <v>286</v>
@@ -7816,7 +7825,7 @@
         <v>286</v>
       </c>
       <c r="H145" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I145" s="19" t="s">
         <v>286</v>
@@ -7851,7 +7860,7 @@
         <v>286</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I146" s="19" t="s">
         <v>286</v>
@@ -7886,7 +7895,7 @@
         <v>286</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I147" s="19" t="s">
         <v>286</v>
@@ -7921,7 +7930,7 @@
         <v>286</v>
       </c>
       <c r="H148" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I148" s="19" t="s">
         <v>286</v>
@@ -7956,7 +7965,7 @@
         <v>286</v>
       </c>
       <c r="H149" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I149" s="19" t="s">
         <v>286</v>
@@ -7991,7 +8000,7 @@
         <v>286</v>
       </c>
       <c r="H150" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I150" s="19" t="s">
         <v>286</v>
@@ -8026,7 +8035,7 @@
         <v>286</v>
       </c>
       <c r="H151" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I151" s="19" t="s">
         <v>286</v>
@@ -8061,7 +8070,7 @@
         <v>286</v>
       </c>
       <c r="H152" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I152" s="19" t="s">
         <v>286</v>
@@ -8096,7 +8105,7 @@
         <v>286</v>
       </c>
       <c r="H153" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I153" s="19" t="s">
         <v>286</v>
@@ -8131,7 +8140,7 @@
         <v>286</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I154" s="19" t="s">
         <v>286</v>
@@ -8166,7 +8175,7 @@
         <v>286</v>
       </c>
       <c r="H155" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I155" s="19" t="s">
         <v>286</v>
@@ -8201,7 +8210,7 @@
         <v>286</v>
       </c>
       <c r="H156" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I156" s="19" t="s">
         <v>286</v>
@@ -8236,7 +8245,7 @@
         <v>286</v>
       </c>
       <c r="H157" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I157" s="19" t="s">
         <v>286</v>
@@ -8271,7 +8280,7 @@
         <v>286</v>
       </c>
       <c r="H158" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I158" s="19" t="s">
         <v>286</v>
@@ -8306,7 +8315,7 @@
         <v>286</v>
       </c>
       <c r="H159" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I159" s="19" t="s">
         <v>286</v>
@@ -8341,7 +8350,7 @@
         <v>286</v>
       </c>
       <c r="H160" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I160" s="19" t="s">
         <v>286</v>
@@ -8376,7 +8385,7 @@
         <v>286</v>
       </c>
       <c r="H161" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I161" s="19" t="s">
         <v>286</v>
@@ -8411,7 +8420,7 @@
         <v>286</v>
       </c>
       <c r="H162" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I162" s="19" t="s">
         <v>286</v>
@@ -8446,7 +8455,7 @@
         <v>286</v>
       </c>
       <c r="H163" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I163" s="19" t="s">
         <v>286</v>
@@ -8481,7 +8490,7 @@
         <v>286</v>
       </c>
       <c r="H164" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I164" s="19" t="s">
         <v>286</v>
@@ -8516,7 +8525,7 @@
         <v>286</v>
       </c>
       <c r="H165" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I165" s="19" t="s">
         <v>286</v>
@@ -8551,7 +8560,7 @@
         <v>286</v>
       </c>
       <c r="H166" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I166" s="19" t="s">
         <v>286</v>
@@ -8586,7 +8595,7 @@
         <v>286</v>
       </c>
       <c r="H167" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I167" s="19" t="s">
         <v>286</v>
@@ -8621,7 +8630,7 @@
         <v>286</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I168" s="19" t="s">
         <v>286</v>
@@ -8656,7 +8665,7 @@
         <v>286</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I169" s="19" t="s">
         <v>286</v>
@@ -8691,7 +8700,7 @@
         <v>286</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I170" s="19" t="s">
         <v>286</v>
@@ -8726,7 +8735,7 @@
         <v>286</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>286</v>
@@ -8761,7 +8770,7 @@
         <v>286</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>286</v>
@@ -8796,7 +8805,7 @@
         <v>286</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>286</v>
@@ -8831,7 +8840,7 @@
         <v>286</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>286</v>
@@ -8866,7 +8875,7 @@
         <v>286</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>286</v>
@@ -8901,7 +8910,7 @@
         <v>286</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>286</v>
@@ -8936,7 +8945,7 @@
         <v>286</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>286</v>
@@ -8971,7 +8980,7 @@
         <v>286</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>286</v>
@@ -9006,7 +9015,7 @@
         <v>286</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>286</v>
@@ -9041,7 +9050,7 @@
         <v>286</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>286</v>
@@ -9076,7 +9085,7 @@
         <v>286</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>286</v>
@@ -9111,7 +9120,7 @@
         <v>286</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>286</v>
@@ -9146,7 +9155,7 @@
         <v>286</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>286</v>
@@ -9181,7 +9190,7 @@
         <v>286</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>286</v>
@@ -9216,7 +9225,7 @@
         <v>286</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>286</v>
@@ -9251,7 +9260,7 @@
         <v>286</v>
       </c>
       <c r="H186" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I186" s="19" t="s">
         <v>286</v>
@@ -9286,7 +9295,7 @@
         <v>286</v>
       </c>
       <c r="H187" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I187" s="19" t="s">
         <v>286</v>
@@ -9321,7 +9330,7 @@
         <v>286</v>
       </c>
       <c r="H188" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I188" s="19" t="s">
         <v>286</v>
@@ -9356,7 +9365,7 @@
         <v>286</v>
       </c>
       <c r="H189" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I189" s="19" t="s">
         <v>286</v>
@@ -9391,7 +9400,7 @@
         <v>286</v>
       </c>
       <c r="H190" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I190" s="19" t="s">
         <v>286</v>
@@ -9426,7 +9435,7 @@
         <v>286</v>
       </c>
       <c r="H191" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I191" s="19" t="s">
         <v>286</v>
@@ -9461,7 +9470,7 @@
         <v>286</v>
       </c>
       <c r="H192" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I192" s="19" t="s">
         <v>286</v>
@@ -9496,7 +9505,7 @@
         <v>286</v>
       </c>
       <c r="H193" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I193" s="19" t="s">
         <v>286</v>
@@ -9531,7 +9540,7 @@
         <v>286</v>
       </c>
       <c r="H194" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I194" s="19" t="s">
         <v>286</v>
@@ -9566,7 +9575,7 @@
         <v>286</v>
       </c>
       <c r="H195" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I195" s="19" t="s">
         <v>286</v>
@@ -9601,7 +9610,7 @@
         <v>286</v>
       </c>
       <c r="H196" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I196" s="19" t="s">
         <v>286</v>
@@ -9636,7 +9645,7 @@
         <v>286</v>
       </c>
       <c r="H197" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I197" s="19" t="s">
         <v>286</v>
@@ -9671,7 +9680,7 @@
         <v>286</v>
       </c>
       <c r="H198" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I198" s="19" t="s">
         <v>286</v>
@@ -9706,7 +9715,7 @@
         <v>286</v>
       </c>
       <c r="H199" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I199" s="19" t="s">
         <v>286</v>
@@ -9741,7 +9750,7 @@
         <v>286</v>
       </c>
       <c r="H200" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I200" s="19" t="s">
         <v>286</v>
@@ -9776,7 +9785,7 @@
         <v>286</v>
       </c>
       <c r="H201" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I201" s="19" t="s">
         <v>286</v>
@@ -9811,7 +9820,7 @@
         <v>286</v>
       </c>
       <c r="H202" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I202" s="19" t="s">
         <v>286</v>
@@ -9846,7 +9855,7 @@
         <v>286</v>
       </c>
       <c r="H203" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I203" s="19" t="s">
         <v>286</v>
@@ -9881,7 +9890,7 @@
         <v>286</v>
       </c>
       <c r="H204" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I204" s="19" t="s">
         <v>286</v>
@@ -9916,7 +9925,7 @@
         <v>286</v>
       </c>
       <c r="H205" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I205" s="19" t="s">
         <v>286</v>
@@ -9951,7 +9960,7 @@
         <v>286</v>
       </c>
       <c r="H206" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I206" s="19" t="s">
         <v>286</v>
@@ -9986,7 +9995,7 @@
         <v>286</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I207" s="19" t="s">
         <v>286</v>
@@ -10021,7 +10030,7 @@
         <v>286</v>
       </c>
       <c r="H208" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I208" s="19" t="s">
         <v>286</v>
@@ -10056,7 +10065,7 @@
         <v>286</v>
       </c>
       <c r="H209" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I209" s="19" t="s">
         <v>286</v>
@@ -10091,7 +10100,7 @@
         <v>286</v>
       </c>
       <c r="H210" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I210" s="19" t="s">
         <v>286</v>
@@ -10126,7 +10135,7 @@
         <v>286</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I211" s="19" t="s">
         <v>286</v>
@@ -10161,7 +10170,7 @@
         <v>286</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I212" s="19" t="s">
         <v>286</v>
@@ -10196,7 +10205,7 @@
         <v>286</v>
       </c>
       <c r="H213" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I213" s="19" t="s">
         <v>286</v>
@@ -10231,7 +10240,7 @@
         <v>286</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I214" s="19" t="s">
         <v>286</v>
@@ -10266,7 +10275,7 @@
         <v>286</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I215" s="19" t="s">
         <v>286</v>
@@ -10301,7 +10310,7 @@
         <v>286</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I216" s="19" t="s">
         <v>286</v>
@@ -10336,7 +10345,7 @@
         <v>286</v>
       </c>
       <c r="H217" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I217" s="19" t="s">
         <v>286</v>
@@ -10371,7 +10380,7 @@
         <v>286</v>
       </c>
       <c r="H218" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I218" s="19" t="s">
         <v>286</v>
@@ -10406,7 +10415,7 @@
         <v>286</v>
       </c>
       <c r="H219" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I219" s="19" t="s">
         <v>286</v>
@@ -10441,7 +10450,7 @@
         <v>286</v>
       </c>
       <c r="H220" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I220" s="19" t="s">
         <v>286</v>
@@ -10476,7 +10485,7 @@
         <v>286</v>
       </c>
       <c r="H221" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I221" s="19" t="s">
         <v>286</v>
@@ -10511,7 +10520,7 @@
         <v>286</v>
       </c>
       <c r="H222" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I222" s="19" t="s">
         <v>286</v>
@@ -10546,7 +10555,7 @@
         <v>286</v>
       </c>
       <c r="H223" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I223" s="19" t="s">
         <v>286</v>
@@ -10581,7 +10590,7 @@
         <v>286</v>
       </c>
       <c r="H224" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I224" s="19" t="s">
         <v>286</v>
@@ -10616,7 +10625,7 @@
         <v>286</v>
       </c>
       <c r="H225" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I225" s="19" t="s">
         <v>286</v>
@@ -10651,7 +10660,7 @@
         <v>286</v>
       </c>
       <c r="H226" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I226" s="19" t="s">
         <v>286</v>
@@ -10686,7 +10695,7 @@
         <v>286</v>
       </c>
       <c r="H227" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I227" s="19" t="s">
         <v>286</v>
@@ -10721,7 +10730,7 @@
         <v>286</v>
       </c>
       <c r="H228" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I228" s="19" t="s">
         <v>286</v>
@@ -10756,7 +10765,7 @@
         <v>286</v>
       </c>
       <c r="H229" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I229" s="19" t="s">
         <v>286</v>
@@ -10791,7 +10800,7 @@
         <v>286</v>
       </c>
       <c r="H230" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I230" s="19" t="s">
         <v>286</v>
@@ -10826,7 +10835,7 @@
         <v>286</v>
       </c>
       <c r="H231" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I231" s="19" t="s">
         <v>286</v>
@@ -10861,7 +10870,7 @@
         <v>286</v>
       </c>
       <c r="H232" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I232" s="19" t="s">
         <v>286</v>
@@ -10896,7 +10905,7 @@
         <v>286</v>
       </c>
       <c r="H233" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I233" s="19" t="s">
         <v>286</v>
@@ -10931,7 +10940,7 @@
         <v>286</v>
       </c>
       <c r="H234" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I234" s="19" t="s">
         <v>286</v>
@@ -10966,7 +10975,7 @@
         <v>286</v>
       </c>
       <c r="H235" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I235" s="19" t="s">
         <v>286</v>
@@ -11001,7 +11010,7 @@
         <v>286</v>
       </c>
       <c r="H236" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I236" s="19" t="s">
         <v>286</v>
@@ -11036,7 +11045,7 @@
         <v>286</v>
       </c>
       <c r="H237" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I237" s="19" t="s">
         <v>286</v>
@@ -11071,7 +11080,7 @@
         <v>286</v>
       </c>
       <c r="H238" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I238" s="19" t="s">
         <v>286</v>
@@ -11106,7 +11115,7 @@
         <v>286</v>
       </c>
       <c r="H239" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I239" s="19" t="s">
         <v>286</v>
@@ -11141,7 +11150,7 @@
         <v>286</v>
       </c>
       <c r="H240" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I240" s="19" t="s">
         <v>286</v>
@@ -11176,7 +11185,7 @@
         <v>286</v>
       </c>
       <c r="H241" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I241" s="19" t="s">
         <v>286</v>
@@ -11211,7 +11220,7 @@
         <v>286</v>
       </c>
       <c r="H242" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I242" s="19" t="s">
         <v>286</v>
@@ -11246,7 +11255,7 @@
         <v>286</v>
       </c>
       <c r="H243" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I243" s="19" t="s">
         <v>286</v>
@@ -11281,7 +11290,7 @@
         <v>286</v>
       </c>
       <c r="H244" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I244" s="19" t="s">
         <v>286</v>
@@ -11316,7 +11325,7 @@
         <v>286</v>
       </c>
       <c r="H245" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I245" s="19" t="s">
         <v>286</v>
@@ -11351,7 +11360,7 @@
         <v>286</v>
       </c>
       <c r="H246" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I246" s="19" t="s">
         <v>286</v>
@@ -11386,7 +11395,7 @@
         <v>286</v>
       </c>
       <c r="H247" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I247" s="19" t="s">
         <v>286</v>
@@ -11421,7 +11430,7 @@
         <v>286</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I248" s="19" t="s">
         <v>286</v>
@@ -11456,7 +11465,7 @@
         <v>286</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I249" s="19" t="s">
         <v>286</v>
@@ -11491,7 +11500,7 @@
         <v>286</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I250" s="19" t="s">
         <v>286</v>
@@ -11526,7 +11535,7 @@
         <v>286</v>
       </c>
       <c r="H251" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I251" s="19" t="s">
         <v>286</v>
@@ -11561,7 +11570,7 @@
         <v>286</v>
       </c>
       <c r="H252" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I252" s="19" t="s">
         <v>286</v>
@@ -11596,7 +11605,7 @@
         <v>286</v>
       </c>
       <c r="H253" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I253" s="19" t="s">
         <v>286</v>
@@ -11631,7 +11640,7 @@
         <v>286</v>
       </c>
       <c r="H254" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I254" s="19" t="s">
         <v>286</v>
@@ -11666,7 +11675,7 @@
         <v>286</v>
       </c>
       <c r="H255" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I255" s="19" t="s">
         <v>286</v>
@@ -11701,7 +11710,7 @@
         <v>286</v>
       </c>
       <c r="H256" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I256" s="19" t="s">
         <v>286</v>
@@ -11736,7 +11745,7 @@
         <v>286</v>
       </c>
       <c r="H257" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I257" s="19" t="s">
         <v>286</v>
@@ -11771,7 +11780,7 @@
         <v>286</v>
       </c>
       <c r="H258" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I258" s="19" t="s">
         <v>286</v>
@@ -11814,12 +11823,12 @@
   <sheetData>
     <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>17</v>
@@ -11830,255 +11839,255 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
